--- a/td_toolkits_v3/reliabilities/tests/test_files/TR2_RA.xlsx
+++ b/td_toolkits_v3/reliabilities/tests/test_files/TR2_RA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Adhesion" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,9 +18,9 @@
     <sheet name="VHR" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Adhesion!$A$1:$J$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Adhesion!$A$1:$K$34</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">PCT!$A$1:$I$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Seal WVTR'!$A$1:$J$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Seal WVTR'!$A$1:$L$14</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">VHR!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="118">
   <si>
     <t xml:space="preserve">項目</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y軸數值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
   </si>
   <si>
     <t xml:space="preserve">Measure condition:
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y軸項目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
   </si>
   <si>
     <t xml:space="preserve">溫度(°C)</t>
@@ -1203,16 +1209,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>604800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1221,8 +1227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20166480" y="6508800"/>
-          <a:ext cx="1040760" cy="294120"/>
+          <a:off x="21767760" y="7456320"/>
+          <a:ext cx="1040400" cy="294120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,13 +1685,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>489600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
@@ -1697,8 +1703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14511240" y="223920"/>
-          <a:ext cx="1040400" cy="279720"/>
+          <a:off x="16481160" y="251280"/>
+          <a:ext cx="1040400" cy="307080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,16 +1765,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>470520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1777,8 +1783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14492160" y="767160"/>
-          <a:ext cx="1040400" cy="282960"/>
+          <a:off x="16462080" y="876240"/>
+          <a:ext cx="1040400" cy="338040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1839,16 +1845,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>497520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1857,8 +1863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14519160" y="1568160"/>
-          <a:ext cx="1040400" cy="300960"/>
+          <a:off x="16489080" y="1814040"/>
+          <a:ext cx="1040400" cy="328320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,28 +1931,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="95.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="95.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1974,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1977,732 +1983,755 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>0.8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>3.4</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>1.1</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>15.8</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>19.6</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>3.6</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="J8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>4.2</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.51</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>2.01</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>2.51</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.59</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>1.23</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>1.82</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="14" t="n">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="17" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="E17" s="17" t="n">
         <v>5.9</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="18" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="18" t="n">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="18" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="E18" s="17" t="n">
         <v>7.7</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="19" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="18" t="n">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="19" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="E19" s="17" t="n">
         <v>1.2</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="18" t="n">
+      <c r="I19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="18" t="n">
         <v>210416</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="n">
         <v>7.6</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="18" t="n">
+      <c r="I20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="18" t="n">
         <v>210416</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="E21" s="17" t="n">
         <v>6.3</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="18" t="n">
+      <c r="I21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="18" t="n">
         <v>210416</v>
       </c>
     </row>
-    <row r="22" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="17" t="n">
         <v>7.4</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="18" t="n">
+      <c r="I22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="18" t="n">
         <v>210416</v>
       </c>
     </row>
-    <row r="23" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="17" t="n">
         <v>7.8</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="18" t="n">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="18" t="n">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="24" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>13</v>
       </c>
       <c r="E24" s="19" t="n">
         <v>0.93</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="19" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>35</v>
@@ -2710,456 +2739,473 @@
       <c r="I24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="20" t="n">
         <v>20201208</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="19" t="n">
         <v>0.71</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="F25" s="19"/>
       <c r="G25" s="19" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="20" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="20" t="n">
         <v>20201208</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="20" t="n">
+        <v>26</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="20" t="n">
         <v>20201208</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" s="19" t="n">
         <v>0.91</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="20" t="n">
+        <v>20201208</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="20" t="n">
-        <v>20201208</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>13</v>
       </c>
       <c r="E28" s="21" t="n">
         <v>28.33</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F28" s="21"/>
       <c r="G28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="21" t="n">
         <v>29.67</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F29" s="21"/>
       <c r="G29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="21" t="n">
         <v>32.75</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F30" s="21"/>
       <c r="G30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="21" t="n">
         <v>27.58</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="21" t="n">
         <v>7.81</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F32" s="21"/>
       <c r="G32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="21" t="n">
         <v>18.76</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F33" s="21"/>
       <c r="G33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J33" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="21" t="n">
         <v>13.23</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F34" s="21"/>
       <c r="G34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J34" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="21" t="n">
         <v>27.59</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F35" s="21"/>
       <c r="G35" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="21" t="n">
         <v>19.88</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F36" s="21"/>
       <c r="G36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="21" t="n">
         <v>21.78</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F37" s="21"/>
       <c r="G37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="21" t="n">
         <v>21.94</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="21"/>
       <c r="G38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3181,8 +3227,8 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3212,1183 +3258,1183 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="G13" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G31" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" s="7" t="n">
         <v>-30</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="7" t="n">
         <v>-30</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G34" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" s="7" t="n">
         <v>-30</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4410,8 +4456,8 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4441,1498 +4487,1498 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="34" t="n">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="31" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="34" t="n">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="31" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="31" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="31" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="31" t="n">
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="31" t="n">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="31" t="n">
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="31" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="31" t="n">
         <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="31" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>0.95</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="31" t="n">
         <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="31" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="31" t="n">
         <v>12</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="31" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>-20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="34" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="31" t="n">
         <v>5</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" s="31" t="n">
         <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>-30</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" s="31" t="n">
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>-40</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="31" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G31" s="32" t="n">
         <v>0.85</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-50</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="16" t="n">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" s="7" t="n">
         <v>-30</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="16" t="n">
         <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="7" t="n">
         <v>-30</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="16" t="n">
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G34" s="32" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" s="7" t="n">
         <v>-30</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="36" t="n">
         <v>5</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" s="35" t="n">
         <v>-30</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="36" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="35" t="n">
         <v>-30</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="36" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" s="35" t="n">
         <v>-30</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="36" t="n">
         <v>21</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="35" t="n">
         <v>-30</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="36" t="n">
         <v>11</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="35" t="n">
         <v>-30</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="36" t="n">
         <v>4</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" s="35" t="n">
         <v>-40</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K40" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" s="36" t="n">
         <v>4</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G41" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41" s="35" t="n">
         <v>-40</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="36" t="n">
         <v>8</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G42" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" s="35" t="n">
         <v>-40</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="36" t="n">
         <v>4</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G43" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" s="35" t="n">
         <v>-40</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5954,8 +6000,8 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5986,222 +6032,222 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>18</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="41" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="41" t="n">
         <v>18</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="41" t="n">
         <v>36</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="41" t="n">
         <v>12</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="41" t="n">
         <v>12</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6221,27 +6267,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="42" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="42" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="42" width="77.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="42" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="42" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="42" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="42" width="77.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="42" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>1</v>
@@ -6256,7 +6302,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G1" s="43" t="s">
         <v>79</v>
@@ -6264,555 +6310,573 @@
       <c r="H1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="42" t="n">
         <v>69.2</v>
       </c>
-      <c r="F2" s="42" t="n">
+      <c r="H2" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G2" s="44" t="n">
+      <c r="I2" s="44" t="n">
         <v>90</v>
       </c>
-      <c r="H2" s="42" t="n">
+      <c r="J2" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="42" t="n">
         <v>87.1</v>
       </c>
-      <c r="F3" s="42" t="n">
+      <c r="H3" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="I3" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="J3" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="21" t="n">
         <v>197</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="I4" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="J4" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="K4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="B5" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="F5" s="42" t="n">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G5" s="42" t="n">
+      <c r="I5" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="J5" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="B6" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="21" t="n">
         <v>177</v>
       </c>
-      <c r="F6" s="42" t="n">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="I6" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="J6" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="B7" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="21" t="n">
         <v>281</v>
       </c>
-      <c r="F7" s="42" t="n">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G7" s="42" t="n">
+      <c r="I7" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="J7" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="K7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>81</v>
-      </c>
       <c r="B8" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="42" t="n">
         <v>101</v>
       </c>
-      <c r="F8" s="42" t="n">
+      <c r="H8" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G8" s="42" t="n">
+      <c r="I8" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H8" s="42" t="n">
+      <c r="J8" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" s="42" t="n">
         <v>98</v>
       </c>
-      <c r="F9" s="42" t="n">
+      <c r="H9" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G9" s="42" t="n">
+      <c r="I9" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="J9" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="42" t="n">
         <v>72</v>
       </c>
-      <c r="F10" s="42" t="n">
+      <c r="H10" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="42" t="n">
+      <c r="I10" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H10" s="42" t="n">
+      <c r="J10" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="45" t="n">
         <v>56</v>
       </c>
-      <c r="F11" s="42" t="n">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G11" s="42" t="n">
+      <c r="I11" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H11" s="42" t="n">
+      <c r="J11" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="42" t="n">
         <v>101</v>
       </c>
-      <c r="F12" s="42" t="n">
+      <c r="H12" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G12" s="42" t="n">
+      <c r="I12" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H12" s="42" t="n">
+      <c r="J12" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="42" t="n">
         <v>72</v>
       </c>
-      <c r="F13" s="42" t="n">
+      <c r="H13" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G13" s="42" t="n">
+      <c r="I13" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="J13" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="45" t="n">
         <v>60</v>
       </c>
-      <c r="F14" s="42" t="n">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="G14" s="42" t="n">
+      <c r="I14" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="H14" s="42" t="n">
+      <c r="J14" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I14" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="42" t="n">
         <v>100</v>
       </c>
-      <c r="F15" s="42" t="n">
+      <c r="H15" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="G15" s="42" t="n">
+      <c r="I15" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="J15" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="42" t="n">
         <v>117</v>
       </c>
-      <c r="F16" s="42" t="n">
+      <c r="H16" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="G16" s="42" t="n">
+      <c r="I16" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="J16" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I16" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="42" t="n">
         <v>96</v>
       </c>
-      <c r="F17" s="42" t="n">
+      <c r="H17" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="G17" s="42" t="n">
+      <c r="I17" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="J17" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I17" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="42" t="n">
         <v>87.6</v>
       </c>
-      <c r="F18" s="42" t="n">
+      <c r="H18" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="G18" s="42" t="n">
+      <c r="I18" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="J18" s="42" t="n">
         <v>300</v>
       </c>
-      <c r="I18" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>88</v>
+      <c r="K18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6834,8 +6898,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6845,8 +6909,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="46" width="11.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="46" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="46" width="27.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="28.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="23.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="46" width="32.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="46" width="27.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="46" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="46" width="24.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="46" width="9"/>
@@ -6866,39 +6932,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="54" t="n">
         <v>0.13</v>
@@ -6914,24 +6980,24 @@
       </c>
       <c r="I2" s="54"/>
       <c r="J2" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="54" t="n">
         <v>0.04</v>
@@ -6947,24 +7013,24 @@
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="54" t="n">
         <v>0.13</v>
@@ -6980,7 +7046,7 @@
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="54" t="n">
         <v>200306</v>
@@ -6988,16 +7054,16 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="54" t="n">
         <v>0.05</v>
@@ -7013,7 +7079,7 @@
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="54" t="n">
         <v>200320</v>
@@ -7037,8 +7103,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7068,33 +7134,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="57" t="n">
         <v>0.732754</v>
@@ -7106,24 +7172,24 @@
         <v>25</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="57" t="n">
         <v>0.399366</v>
@@ -7135,24 +7201,24 @@
         <v>25</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="57" t="n">
         <v>-0.274558</v>
@@ -7164,24 +7230,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="57" t="n">
         <v>0.142466</v>
@@ -7193,10 +7259,10 @@
         <v>25</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7218,7 +7284,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7246,42 +7312,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="62" t="n">
         <v>89</v>
@@ -7296,27 +7362,27 @@
         <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="62" t="n">
         <v>83.9</v>
@@ -7331,27 +7397,27 @@
         <v>60</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="62" t="n">
         <v>79</v>
@@ -7366,27 +7432,27 @@
         <v>60</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="64" t="n">
         <v>49.5</v>
@@ -7401,27 +7467,27 @@
         <v>60</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="64" t="n">
         <v>63.9</v>
@@ -7436,27 +7502,27 @@
         <v>60</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="63" t="n">
         <v>82</v>
@@ -7471,27 +7537,27 @@
         <v>60</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>81.7</v>
@@ -7506,27 +7572,27 @@
         <v>60</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>91.3</v>
@@ -7541,27 +7607,27 @@
         <v>60</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>84.7</v>
@@ -7576,27 +7642,27 @@
         <v>60</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>91.6</v>
@@ -7611,27 +7677,27 @@
         <v>60</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>83.7</v>
@@ -7646,27 +7712,27 @@
         <v>60</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>91.6</v>
@@ -7681,27 +7747,27 @@
         <v>60</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="68" t="n">
         <v>32</v>
@@ -7716,27 +7782,27 @@
         <v>60</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="68" t="n">
         <v>19.5</v>
@@ -7751,27 +7817,27 @@
         <v>60</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="68" t="n">
         <v>36.2</v>
@@ -7786,27 +7852,27 @@
         <v>60</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="68" t="n">
         <v>29</v>
@@ -7821,27 +7887,27 @@
         <v>60</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="68" t="n">
         <v>18.6</v>
@@ -7856,27 +7922,27 @@
         <v>60</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="68" t="n">
         <v>34.9</v>
@@ -7891,27 +7957,27 @@
         <v>60</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="68" t="n">
         <v>30.5</v>
@@ -7926,27 +7992,27 @@
         <v>60</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="68" t="n">
         <v>28.9</v>
@@ -7961,27 +8027,27 @@
         <v>60</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="68" t="n">
         <v>29.1</v>
@@ -7996,27 +8062,27 @@
         <v>60</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="26" t="n">
         <v>77.6</v>
@@ -8031,27 +8097,27 @@
         <v>60</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="26" t="n">
         <v>78.5</v>
@@ -8066,27 +8132,27 @@
         <v>60</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="26" t="n">
         <v>81</v>
@@ -8101,27 +8167,27 @@
         <v>60</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K25" s="71" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="26" t="n">
         <v>79</v>
@@ -8136,27 +8202,27 @@
         <v>60</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="26" t="n">
         <v>92.56</v>
@@ -8171,27 +8237,27 @@
         <v>60</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" s="71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="26" t="n">
         <v>92.6</v>
@@ -8206,27 +8272,27 @@
         <v>60</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" s="69" t="n">
         <v>79.9</v>
@@ -8241,27 +8307,27 @@
         <v>60</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" s="74" t="n">
         <v>73.6</v>
@@ -8276,27 +8342,27 @@
         <v>60</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J30" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="77" t="n">
         <v>89.7</v>
@@ -8311,10 +8377,10 @@
         <v>60</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J31" s="76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K31" s="78" t="n">
         <v>210111</v>
@@ -8322,16 +8388,16 @@
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="77" t="n">
         <v>96.8</v>
@@ -8346,10 +8412,10 @@
         <v>60</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K32" s="78" t="n">
         <v>210111</v>
@@ -8357,16 +8423,16 @@
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="39" t="n">
         <v>96.16</v>
@@ -8381,27 +8447,27 @@
         <v>60</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33" s="79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>72.68</v>
@@ -8416,27 +8482,27 @@
         <v>60</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K34" s="79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>97.02</v>
@@ -8451,27 +8517,27 @@
         <v>60</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K35" s="79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>93.28</v>
@@ -8486,13 +8552,13 @@
         <v>60</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36" s="79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/td_toolkits_v3/reliabilities/tests/test_files/TR2_RA.xlsx
+++ b/td_toolkits_v3/reliabilities/tests/test_files/TR2_RA.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\td_toolkits_v3\td_toolkits_v3\reliabilities\tests\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Adhesion" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LTO" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="LTS" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PCT" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Seal WVTR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Δangle" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="U-Shape AC" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="VHR" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Adhesion" sheetId="1" r:id="rId1"/>
+    <sheet name="LTO" sheetId="2" r:id="rId2"/>
+    <sheet name="LTS" sheetId="3" r:id="rId3"/>
+    <sheet name="PCT" sheetId="4" r:id="rId4"/>
+    <sheet name="Seal WVTR" sheetId="5" r:id="rId5"/>
+    <sheet name="Δangle" sheetId="6" r:id="rId6"/>
+    <sheet name="U-Shape AC" sheetId="7" r:id="rId7"/>
+    <sheet name="VHR" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Adhesion!$A$1:$K$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">PCT!$A$1:$I$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Seal WVTR'!$A$1:$L$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">VHR!$A$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Adhesion!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">PCT!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Seal WVTR'!$A$1:$L$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7">VHR!$A$1:$K$32</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,24 +36,24 @@
 </workbook>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">NA: fresh LC
+          <t>NA: fresh LC
 Seal name: jar test</t>
         </r>
       </text>
@@ -59,152 +63,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="118">
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y軸數值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure condition:
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="120">
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Y軸數值</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Measure condition:
 Adhesion介面(T/C)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition:
+    <t>Measure condition:
 測試手法</t>
   </si>
   <si>
-    <t xml:space="preserve">Remark:Peeling介面(T/C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">723K1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI/PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法5mm/min 雙PI--積水STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal/Seal &amp; PI/Seal peeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">積水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210319_INX_TR1 (S-NP07)_No.22,23 PCT Peeling mode追記_SNP07, K1M, 7142T, 005, 109U, 205.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7142T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB205</t>
+    <t>Remark:Peeling介面(T/C)</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t>File source</t>
+  </si>
+  <si>
+    <t>Adhesion</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>RB005</t>
+  </si>
+  <si>
+    <t>723K1M</t>
+  </si>
+  <si>
+    <t>PI/PI</t>
+  </si>
+  <si>
+    <t>十字法5mm/min 雙PI--積水STD</t>
+  </si>
+  <si>
+    <t>Seal/Seal &amp; PI/Seal peeling</t>
+  </si>
+  <si>
+    <t>積水</t>
+  </si>
+  <si>
+    <t>210319_INX_TR1 (S-NP07)_No.22,23 PCT Peeling mode追記_SNP07, K1M, 7142T, 005, 109U, 205.1</t>
+  </si>
+  <si>
+    <t>7142T</t>
+  </si>
+  <si>
+    <t>RB205</t>
   </si>
   <si>
     <t xml:space="preserve"> PI/Seal peeling</t>
   </si>
   <si>
-    <t xml:space="preserve">協立法 雙PI --協立STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">協立</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200427_ODF_INL北_723K1M、7142T_新PI接著方式(中文)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal/Seal peeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法5mm/min--三井STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.B.D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三井</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200421_Adheisve Strenght to PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法-雙PI-日產</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nissan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-NP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法-雙PI-CMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI/Glass peeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2211, 膠寬 1000um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNP07 TR1&amp;TR2 Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九宮格, 膠寬 1000um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-747 TR1&amp;TR2 Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-747(UV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sealant</t>
+    <t>協立法 雙PI --協立STD</t>
+  </si>
+  <si>
+    <t>協立</t>
+  </si>
+  <si>
+    <t>200427_ODF_INL北_723K1M、7142T_新PI接著方式(中文)</t>
+  </si>
+  <si>
+    <t>Seal/Seal peeling</t>
+  </si>
+  <si>
+    <t>十字法5mm/min--三井STD</t>
+  </si>
+  <si>
+    <t>T.B.D</t>
+  </si>
+  <si>
+    <t>三井</t>
+  </si>
+  <si>
+    <t>200421_Adheisve Strenght to PI</t>
+  </si>
+  <si>
+    <t>V386</t>
+  </si>
+  <si>
+    <t>十字法-雙PI-日產</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>S-NP07</t>
+  </si>
+  <si>
+    <t>十字法-雙PI-CMC</t>
+  </si>
+  <si>
+    <t>PI/Glass peeling</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>2211, 膠寬 1000um</t>
+  </si>
+  <si>
+    <t>INX</t>
+  </si>
+  <si>
+    <t>SNP07 TR1&amp;TR2 Report</t>
+  </si>
+  <si>
+    <t>SNP07</t>
+  </si>
+  <si>
+    <t>九宮格, 膠寬 1000um</t>
+  </si>
+  <si>
+    <t>SUR-747 TR1&amp;TR2 Report</t>
+  </si>
+  <si>
+    <t>SUR-747(UV)</t>
+  </si>
+  <si>
+    <t>SUR-747</t>
+  </si>
+  <si>
+    <t>SUR-748</t>
+  </si>
+  <si>
+    <t>Sealant</t>
   </si>
   <si>
     <r>
@@ -215,7 +219,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LTO result
+      <t>LTO result
 (</t>
     </r>
     <r>
@@ -226,7 +230,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">有黑屏</t>
+      <t>有黑屏</t>
     </r>
     <r>
       <rPr>
@@ -236,19 +240,19 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: NG)</t>
+      <t>: NG)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Bulk/Test Cell)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (SLV%, Fresh=100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Jar test add on Sealant)</t>
   </si>
   <si>
@@ -260,7 +264,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Measure condition
+      <t>Measure condition
 (</t>
     </r>
     <r>
@@ -271,7 +275,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">℃</t>
+      <t>℃</t>
     </r>
     <r>
       <rPr>
@@ -281,290 +285,279 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC19V33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slichem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6512_19V33_LTS-40_20200902.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE-7492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XN-5490H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-15-1098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk LTS.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-19-580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTS result
+    <t>LTO</t>
+  </si>
+  <si>
+    <t>SLC19V33</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Slichem</t>
+  </si>
+  <si>
+    <t>6512_19V33_LTS-40_20200902.xlsx</t>
+  </si>
+  <si>
+    <t>SE-7492</t>
+  </si>
+  <si>
+    <t>XN-5490H</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test Cell</t>
+  </si>
+  <si>
+    <t>LCT-15-1098</t>
+  </si>
+  <si>
+    <t>Bulk LTS.xlsx</t>
+  </si>
+  <si>
+    <t>LCT-19-580</t>
+  </si>
+  <si>
+    <t>LTS result
 (1st NG Day)</t>
   </si>
   <si>
-    <t xml:space="preserve">LTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1098 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY20-Q18F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC20V87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILD843001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIX-7054XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y軸數值 
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>1098 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>BY20-Q18F</t>
+  </si>
+  <si>
+    <t>SLC20V87</t>
+  </si>
+  <si>
+    <t>ZIX-7054XX</t>
+  </si>
+  <si>
+    <t>Y軸數值 
 (Bubble 5% hours)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 測試條件</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition:
+    <t>Measure condition:
 test vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">PCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2atm, 121℃, 100% RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九宮格 test cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y軸項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溫度(°C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">濕度(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">膜厚(um)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WVTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200131_ODF_INL北_723K1M,7142T_貴社指定条件透湿度(実測)_80℃90％,65℃95％_中文版</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200302_Data of Seal H (INX竹南).1_V386, K1M, 7142T,SWH25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWH25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200930 NXT2-Roadmap (1003) 追加光起始劑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201110_INX_QTR_v5 (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-NP07 TR1 TR2 Report</t>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>2atm, 121℃, 100% RH</t>
+  </si>
+  <si>
+    <t>九宮格 test cell</t>
+  </si>
+  <si>
+    <t>Y軸項目</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>溫度(°C)</t>
+  </si>
+  <si>
+    <t>濕度(%)</t>
+  </si>
+  <si>
+    <t>膜厚(um)</t>
+  </si>
+  <si>
+    <t>WVTR</t>
+  </si>
+  <si>
+    <t>200131_ODF_INL北_723K1M,7142T_貴社指定条件透湿度(実測)_80℃90％,65℃95％_中文版</t>
+  </si>
+  <si>
+    <t>200302_Data of Seal H (INX竹南).1_V386, K1M, 7142T,SWH25</t>
+  </si>
+  <si>
+    <t>SWH25</t>
+  </si>
+  <si>
+    <t>200930 NXT2-Roadmap (1003) 追加光起始劑</t>
+  </si>
+  <si>
+    <t>SSS42</t>
+  </si>
+  <si>
+    <t>201110_INX_QTR_v5 (4)</t>
+  </si>
+  <si>
+    <t>S-NP07 TR1 TR2 Report</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Y</t>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">軸數值</t>
+      <t>軸數值</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Voltage:V)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Frequence:hz)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Time:hr)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (溫度:oC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Δangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-17-1336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200306
+    <t>Δangle</t>
+  </si>
+  <si>
+    <t>LCT-17-1336</t>
+  </si>
+  <si>
+    <t>200306
 200320</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Y</t>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">軸數值
+      <t>軸數值
 (取中位數)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AC%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1099 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VHR
+    <t>AC%</t>
+  </si>
+  <si>
+    <t>1099 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>1100 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>1101 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>VHR
 (Heat)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (UV aging)</t>
   </si>
   <si>
-    <t xml:space="preserve">VHR(Heat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS-A-19-075  Innolux LCT-15-1098 723K1M sealant N and sealant L contact test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS-A-19-073  Innolux Mobile UB-FFS LC sealant N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191127 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-Y、LC-Z].pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200527_LC Polluiton Test (INX竹南)_1336, 19V33, 580, 1228, 1098, 005, 169, V386, K1M</t>
+    <t>VHR(Heat)</t>
+  </si>
+  <si>
+    <t>Before UV</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>CAS-A-19-075  Innolux LCT-15-1098 723K1M sealant N and sealant L contact test</t>
+  </si>
+  <si>
+    <t>CAS-A-19-073  Innolux Mobile UB-FFS LC sealant N</t>
+  </si>
+  <si>
+    <t>191127 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-Y、LC-Z].pdf</t>
+  </si>
+  <si>
+    <t>200527_LC Polluiton Test (INX竹南)_1336, 19V33, 580, 1228, 1098, 005, 169, V386, K1M</t>
   </si>
   <si>
     <t xml:space="preserve">200312_JAR Test_UR-V386_LC-Y (INX竹南) </t>
   </si>
   <si>
-    <t xml:space="preserve">191009 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-V、LC-W、LC-Y ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210115_ODF_INL北_XS-K7059_追加Data_中文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180808 INL XS-K7142T価-2 (U238 LC-H XS-K7142T 723K1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210226_ODF_INL北_723K1M_Test Cell實驗_PI-P電氣特性,HPLC追加_中文.1</t>
+    <t>191009 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-V、LC-W、LC-Y ]</t>
+  </si>
+  <si>
+    <t>210115_ODF_INL北_XS-K7059_追加Data_中文</t>
+  </si>
+  <si>
+    <t>180808 INL XS-K7142T価-2 (U238 LC-H XS-K7142T 723K1</t>
+  </si>
+  <si>
+    <t>210226_ODF_INL北_723K1M_Test Cell實驗_PI-P電氣特性,HPLC追加_中文.1</t>
+  </si>
+  <si>
+    <t>S-NP07</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILD-843001</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILD-843001</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -608,18 +601,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF3333FF"/>
       <name val="新細明體"/>
@@ -655,7 +636,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
@@ -663,7 +644,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -671,7 +652,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="細明體"/>
@@ -679,7 +660,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
@@ -687,21 +668,21 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -709,12 +690,25 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="7">
@@ -756,392 +750,296 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="一般 2" xfId="20"/>
-    <cellStyle name="百分比 2" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="百分比 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1200,29 +1098,45 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>303120</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>604800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1234,7 +1148,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1246,15 +1160,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1262,7 +1183,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1271,7 +1192,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1279,7 +1200,7 @@
             </a:rPr>
             <a:t>: &gt;28.33</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1291,7 +1212,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -1307,11 +1228,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="圖片 1" descr=""/>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1344,11 +1265,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 2" descr=""/>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1381,11 +1302,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 3" descr=""/>
+        <xdr:cNvPr id="4" name="圖片 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1407,7 +1328,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -1423,11 +1344,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 1" descr=""/>
+        <xdr:cNvPr id="4" name="圖片 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1460,11 +1381,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 2" descr=""/>
+        <xdr:cNvPr id="5" name="圖片 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1497,11 +1418,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 3" descr=""/>
+        <xdr:cNvPr id="6" name="圖片 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1534,11 +1455,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="7" name="Picture 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1571,11 +1492,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 5" descr=""/>
+        <xdr:cNvPr id="8" name="Picture 5"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1597,8 +1518,8 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247680</xdr:colOff>
@@ -1611,7 +1532,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1625,7 +1546,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1637,15 +1558,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1653,7 +1581,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1662,7 +1590,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1670,7 +1598,7 @@
             </a:rPr>
             <a:t>:  ≧18h</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1682,8 +1610,8 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>187920</xdr:colOff>
@@ -1696,7 +1624,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1710,7 +1638,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1722,15 +1650,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1738,7 +1673,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1747,7 +1682,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1755,7 +1690,7 @@
             </a:rPr>
             <a:t>: &lt; 69.2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1763,7 +1698,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>168840</xdr:colOff>
@@ -1776,7 +1711,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1790,7 +1725,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1802,15 +1737,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1818,7 +1760,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1827,7 +1769,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1835,7 +1777,7 @@
             </a:rPr>
             <a:t>: &lt; 177</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1843,7 +1785,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>195840</xdr:colOff>
@@ -1856,7 +1798,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1870,7 +1812,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1882,15 +1824,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1898,7 +1847,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1907,7 +1856,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1915,7 +1864,7 @@
             </a:rPr>
             <a:t>: &lt; 101</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1926,33 +1875,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="95.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="9"/>
+    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="95.25" style="2" customWidth="1"/>
+    <col min="11" max="1023" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1969,25 +2176,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -2000,27 +2204,26 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>0.8</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2033,27 +2236,26 @@
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>3.4</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2066,27 +2268,26 @@
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.6</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2099,27 +2300,26 @@
       <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2132,27 +2332,26 @@
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="11">
         <v>15.8</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2165,27 +2364,26 @@
       <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F7" s="11"/>
+      <c r="E7" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
@@ -2198,27 +2396,26 @@
       <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>3.6</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2231,27 +2428,26 @@
       <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>4.2</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2264,27 +2460,26 @@
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>1.51</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2297,27 +2492,26 @@
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2330,27 +2524,26 @@
       <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2363,27 +2556,26 @@
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>0.59</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -2396,27 +2588,26 @@
       <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>1.23</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -2429,27 +2620,26 @@
       <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>1.82</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -2462,27 +2652,26 @@
       <c r="D16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="17">
         <v>8</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="14" t="n">
+      <c r="J16" s="14">
         <v>210416</v>
       </c>
     </row>
-    <row r="17" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
@@ -2495,27 +2684,26 @@
       <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="17">
         <v>5.9</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="I17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="18" t="n">
+      <c r="J17" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="18" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
@@ -2528,27 +2716,26 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="17">
         <v>7.7</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="J18" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="19" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
@@ -2561,27 +2748,26 @@
       <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="17">
         <v>1.2</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="18" t="n">
+      <c r="J19" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2594,27 +2780,26 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="17">
         <v>7.6</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="18" t="n">
+      <c r="J20" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2627,27 +2812,26 @@
       <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="17">
         <v>6.3</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="18" t="n">
+      <c r="J21" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="22" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2660,27 +2844,26 @@
       <c r="D22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="17" t="n">
+      <c r="E22" s="17">
         <v>7.4</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="18" t="n">
+      <c r="J22" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="23" s="15" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -2693,27 +2876,26 @@
       <c r="D23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="17">
         <v>7.8</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="I23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="18" t="n">
+      <c r="J23" s="18">
         <v>210416</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -2726,27 +2908,26 @@
       <c r="D24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="19">
         <v>0.93</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="20" t="n">
+      <c r="J24" s="20">
         <v>20201208</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -2759,27 +2940,26 @@
       <c r="D25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="19">
         <v>0.71</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="20" t="n">
+      <c r="J25" s="20">
         <v>20201208</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -2792,27 +2972,26 @@
       <c r="D26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="19" t="n">
+      <c r="E26" s="19">
         <v>1.2</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="20" t="n">
+      <c r="J26" s="20">
         <v>20201208</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2825,27 +3004,26 @@
       <c r="D27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="E27" s="19">
         <v>0.91</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="20" t="n">
+      <c r="J27" s="20">
         <v>20201208</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2858,27 +3036,26 @@
       <c r="D28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="21" t="n">
+      <c r="E28" s="21">
         <v>28.33</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="I28" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>11</v>
       </c>
@@ -2891,27 +3068,26 @@
       <c r="D29" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="21" t="n">
+      <c r="E29" s="21">
         <v>29.67</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="I29" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>11</v>
       </c>
@@ -2924,27 +3100,26 @@
       <c r="D30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="21" t="n">
+      <c r="E30" s="21">
         <v>32.75</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="I30" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>11</v>
       </c>
@@ -2957,27 +3132,26 @@
       <c r="D31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="21" t="n">
+      <c r="E31" s="21">
         <v>27.58</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="I31" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>11</v>
       </c>
@@ -2990,27 +3164,26 @@
       <c r="D32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="21" t="n">
+      <c r="E32" s="21">
         <v>7.81</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I32" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>11</v>
       </c>
@@ -3023,27 +3196,26 @@
       <c r="D33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="21" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="F33" s="21"/>
+      <c r="E33" s="21">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I33" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>11</v>
       </c>
@@ -3056,27 +3228,26 @@
       <c r="D34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="21" t="n">
+      <c r="E34" s="21">
         <v>13.23</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I34" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>11</v>
       </c>
@@ -3089,27 +3260,26 @@
       <c r="D35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="21" t="n">
+      <c r="E35" s="21">
         <v>27.59</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I35" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>11</v>
       </c>
@@ -3122,27 +3292,26 @@
       <c r="D36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="21" t="n">
+      <c r="E36" s="21">
         <v>19.88</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I36" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>11</v>
       </c>
@@ -3155,27 +3324,26 @@
       <c r="D37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="21" t="n">
+      <c r="E37" s="21">
         <v>21.78</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I37" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>11</v>
       </c>
@@ -3188,66 +3356,58 @@
       <c r="D38" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="21" t="n">
+      <c r="E38" s="21">
         <v>21.94</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="F38" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I38" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J38" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="21" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="12.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="22" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="79.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="22" width="9"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="12.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9" style="22"/>
+    <col min="4" max="4" width="14" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="79.5" style="24" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>53</v>
       </c>
@@ -3301,13 +3461,13 @@
       <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="32" t="n">
+      <c r="G2" s="32">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>-20</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -3317,7 +3477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>53</v>
       </c>
@@ -3336,13 +3496,13 @@
       <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>-30</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -3352,7 +3512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>53</v>
       </c>
@@ -3371,13 +3531,13 @@
       <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="32">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>-40</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -3387,7 +3547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>53</v>
       </c>
@@ -3406,13 +3566,13 @@
       <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="32" t="n">
+      <c r="G5" s="32">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>-30</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -3422,7 +3582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>53</v>
       </c>
@@ -3441,13 +3601,13 @@
       <c r="F6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="32" t="n">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>-40</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -3457,7 +3617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>53</v>
       </c>
@@ -3476,13 +3636,13 @@
       <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="32" t="n">
+      <c r="G7" s="32">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>-50</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -3492,7 +3652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>53</v>
       </c>
@@ -3511,13 +3671,13 @@
       <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="32" t="n">
+      <c r="G8" s="32">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>-20</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -3527,7 +3687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>53</v>
       </c>
@@ -3546,13 +3706,13 @@
       <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="32" t="n">
+      <c r="G9" s="32">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>-30</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -3562,7 +3722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>53</v>
       </c>
@@ -3581,13 +3741,13 @@
       <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="32" t="n">
+      <c r="G10" s="32">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="6">
         <v>-40</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -3597,7 +3757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>53</v>
       </c>
@@ -3616,13 +3776,13 @@
       <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="32" t="n">
+      <c r="G11" s="32">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>-30</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -3632,7 +3792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>53</v>
       </c>
@@ -3651,13 +3811,13 @@
       <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="32" t="n">
+      <c r="G12" s="32">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>-40</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -3667,7 +3827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>53</v>
       </c>
@@ -3686,13 +3846,13 @@
       <c r="F13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="32">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>-50</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -3702,7 +3862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>53</v>
       </c>
@@ -3721,13 +3881,13 @@
       <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="32">
         <v>0.95</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>-20</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -3737,7 +3897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>53</v>
       </c>
@@ -3756,13 +3916,13 @@
       <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="32">
         <v>0.95</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>-30</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -3772,7 +3932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>53</v>
       </c>
@@ -3791,13 +3951,13 @@
       <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="32" t="n">
+      <c r="G16" s="32">
         <v>0.95</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>-40</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -3807,7 +3967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>53</v>
       </c>
@@ -3826,13 +3986,13 @@
       <c r="F17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="32" t="n">
+      <c r="G17" s="32">
         <v>0.95</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="6">
         <v>-30</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -3842,7 +4002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>53</v>
       </c>
@@ -3861,13 +4021,13 @@
       <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="32">
         <v>0.95</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="6">
         <v>-40</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -3877,7 +4037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>53</v>
       </c>
@@ -3896,13 +4056,13 @@
       <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="32" t="n">
+      <c r="G19" s="32">
         <v>0.95</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>-50</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -3912,7 +4072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
@@ -3931,13 +4091,13 @@
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="32" t="n">
+      <c r="G20" s="32">
         <v>0.9</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>-20</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -3947,7 +4107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
@@ -3966,13 +4126,13 @@
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="32" t="n">
+      <c r="G21" s="32">
         <v>0.9</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="6">
         <v>-30</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -3982,7 +4142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
@@ -4001,13 +4161,13 @@
       <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="32" t="n">
+      <c r="G22" s="32">
         <v>0.9</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="6">
         <v>-40</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -4017,7 +4177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>53</v>
       </c>
@@ -4036,13 +4196,13 @@
       <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="32" t="n">
+      <c r="G23" s="32">
         <v>0.9</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>-30</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -4052,7 +4212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>53</v>
       </c>
@@ -4071,13 +4231,13 @@
       <c r="F24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="32" t="n">
+      <c r="G24" s="32">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="6">
         <v>-40</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -4087,7 +4247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>53</v>
       </c>
@@ -4106,13 +4266,13 @@
       <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="32" t="n">
+      <c r="G25" s="32">
         <v>0.9</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="6">
         <v>-50</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -4122,7 +4282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>53</v>
       </c>
@@ -4141,13 +4301,13 @@
       <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="32" t="n">
+      <c r="G26" s="32">
         <v>0.85</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="6">
         <v>-20</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -4157,7 +4317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>53</v>
       </c>
@@ -4176,13 +4336,13 @@
       <c r="F27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="32" t="n">
+      <c r="G27" s="32">
         <v>0.85</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="6">
         <v>-30</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -4192,7 +4352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
@@ -4211,13 +4371,13 @@
       <c r="F28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="32" t="n">
+      <c r="G28" s="32">
         <v>0.85</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="6">
         <v>-40</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -4227,7 +4387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>53</v>
       </c>
@@ -4246,13 +4406,13 @@
       <c r="F29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="32" t="n">
+      <c r="G29" s="32">
         <v>0.85</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="6">
         <v>-30</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -4262,7 +4422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>53</v>
       </c>
@@ -4281,13 +4441,13 @@
       <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="32" t="n">
+      <c r="G30" s="32">
         <v>0.85</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="6">
         <v>-40</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -4297,7 +4457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
@@ -4316,13 +4476,13 @@
       <c r="F31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="32" t="n">
+      <c r="G31" s="32">
         <v>0.85</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="6">
         <v>-50</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -4332,7 +4492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
@@ -4351,13 +4511,13 @@
       <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="32" t="n">
+      <c r="G32" s="32">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="7">
         <v>-30</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -4367,7 +4527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>53</v>
       </c>
@@ -4386,13 +4546,13 @@
       <c r="F33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="32" t="n">
+      <c r="G33" s="32">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="7">
         <v>-30</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -4402,7 +4562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>53</v>
       </c>
@@ -4421,13 +4581,13 @@
       <c r="F34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="32" t="n">
+      <c r="G34" s="32">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="7">
         <v>-30</v>
       </c>
       <c r="J34" s="7" t="s">
@@ -4438,45 +4598,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="12.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="22" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="79.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="22" width="9"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="12.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9" style="22"/>
+    <col min="4" max="4" width="14" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="79.5" style="24" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4511,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>66</v>
       </c>
@@ -4524,19 +4677,19 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="31" t="n">
+      <c r="E2" s="31">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="32" t="n">
+      <c r="G2" s="32">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>-20</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4546,7 +4699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
@@ -4559,19 +4712,19 @@
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="34">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>-30</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -4581,7 +4734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
@@ -4594,19 +4747,19 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="31" t="n">
+      <c r="E4" s="31">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="32">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>-40</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -4616,7 +4769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>66</v>
       </c>
@@ -4629,19 +4782,19 @@
       <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="34">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="32" t="n">
+      <c r="G5" s="32">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>-30</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -4651,7 +4804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>66</v>
       </c>
@@ -4664,19 +4817,19 @@
       <c r="D6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="31">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="32" t="n">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>-40</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -4686,7 +4839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
@@ -4699,19 +4852,19 @@
       <c r="D7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="31">
         <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="32" t="n">
+      <c r="G7" s="32">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>-50</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -4721,7 +4874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>66</v>
       </c>
@@ -4734,19 +4887,19 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="31">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="32" t="n">
+      <c r="G8" s="32">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>-20</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -4756,7 +4909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>66</v>
       </c>
@@ -4769,19 +4922,19 @@
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="31">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="32" t="n">
+      <c r="G9" s="32">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>-30</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -4791,7 +4944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>66</v>
       </c>
@@ -4804,19 +4957,19 @@
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="31" t="n">
+      <c r="E10" s="31">
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="32" t="n">
+      <c r="G10" s="32">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="6">
         <v>-40</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -4826,7 +4979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>66</v>
       </c>
@@ -4839,19 +4992,19 @@
       <c r="D11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="31">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="32" t="n">
+      <c r="G11" s="32">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>-30</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -4861,7 +5014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>66</v>
       </c>
@@ -4874,19 +5027,19 @@
       <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="31" t="n">
+      <c r="E12" s="31">
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="32" t="n">
+      <c r="G12" s="32">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>-40</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -4896,7 +5049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>66</v>
       </c>
@@ -4909,19 +5062,19 @@
       <c r="D13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="31" t="n">
+      <c r="E13" s="31">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="32">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>-50</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -4931,7 +5084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>66</v>
       </c>
@@ -4944,19 +5097,19 @@
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="31" t="n">
+      <c r="E14" s="31">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="32">
         <v>0.95</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>-20</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -4966,7 +5119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>66</v>
       </c>
@@ -4979,19 +5132,19 @@
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="31" t="n">
+      <c r="E15" s="31">
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="32">
         <v>0.95</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>-30</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -5001,7 +5154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>66</v>
       </c>
@@ -5014,19 +5167,19 @@
       <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="31" t="n">
+      <c r="E16" s="31">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="32" t="n">
+      <c r="G16" s="32">
         <v>0.95</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>-40</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -5036,7 +5189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>66</v>
       </c>
@@ -5049,19 +5202,19 @@
       <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="31" t="n">
+      <c r="E17" s="31">
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="32" t="n">
+      <c r="G17" s="32">
         <v>0.95</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="6">
         <v>-30</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -5071,7 +5224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>66</v>
       </c>
@@ -5084,19 +5237,19 @@
       <c r="D18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="31" t="n">
+      <c r="E18" s="31">
         <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="32">
         <v>0.95</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="6">
         <v>-40</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -5106,7 +5259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>66</v>
       </c>
@@ -5119,19 +5272,19 @@
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="31" t="n">
+      <c r="E19" s="31">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="32" t="n">
+      <c r="G19" s="32">
         <v>0.95</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>-50</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -5141,7 +5294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>66</v>
       </c>
@@ -5154,19 +5307,19 @@
       <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="31" t="n">
+      <c r="E20" s="31">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="32" t="n">
+      <c r="G20" s="32">
         <v>0.9</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>-20</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -5176,7 +5329,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>66</v>
       </c>
@@ -5189,19 +5342,19 @@
       <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="31" t="n">
+      <c r="E21" s="31">
         <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="32" t="n">
+      <c r="G21" s="32">
         <v>0.9</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="6">
         <v>-30</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -5211,7 +5364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>66</v>
       </c>
@@ -5224,19 +5377,19 @@
       <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="31" t="n">
+      <c r="E22" s="31">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="32" t="n">
+      <c r="G22" s="32">
         <v>0.9</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="6">
         <v>-40</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -5246,7 +5399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>66</v>
       </c>
@@ -5259,19 +5412,19 @@
       <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="31" t="n">
+      <c r="E23" s="31">
         <v>10</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="32" t="n">
+      <c r="G23" s="32">
         <v>0.9</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>-30</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -5281,7 +5434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>66</v>
       </c>
@@ -5294,19 +5447,19 @@
       <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="31" t="n">
+      <c r="E24" s="31">
         <v>12</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="32" t="n">
+      <c r="G24" s="32">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="6">
         <v>-40</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -5316,7 +5469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>66</v>
       </c>
@@ -5329,19 +5482,19 @@
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="31" t="n">
+      <c r="E25" s="31">
         <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="32" t="n">
+      <c r="G25" s="32">
         <v>0.9</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="6">
         <v>-50</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -5351,7 +5504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>66</v>
       </c>
@@ -5364,19 +5517,19 @@
       <c r="D26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="31" t="n">
+      <c r="E26" s="31">
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="32" t="n">
+      <c r="G26" s="32">
         <v>0.85</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="6">
         <v>-20</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -5386,7 +5539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>66</v>
       </c>
@@ -5399,19 +5552,19 @@
       <c r="D27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="34" t="n">
+      <c r="E27" s="34">
         <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="32" t="n">
+      <c r="G27" s="32">
         <v>0.85</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="6">
         <v>-30</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -5421,7 +5574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>66</v>
       </c>
@@ -5434,19 +5587,19 @@
       <c r="D28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="31" t="n">
+      <c r="E28" s="31">
         <v>5</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="32" t="n">
+      <c r="G28" s="32">
         <v>0.85</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="6">
         <v>-40</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -5456,7 +5609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>66</v>
       </c>
@@ -5469,19 +5622,19 @@
       <c r="D29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="31" t="n">
+      <c r="E29" s="31">
         <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="32" t="n">
+      <c r="G29" s="32">
         <v>0.85</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="6">
         <v>-30</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -5491,7 +5644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>66</v>
       </c>
@@ -5504,19 +5657,19 @@
       <c r="D30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="31" t="n">
+      <c r="E30" s="31">
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="32" t="n">
+      <c r="G30" s="32">
         <v>0.85</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="6">
         <v>-40</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -5526,7 +5679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>66</v>
       </c>
@@ -5539,19 +5692,19 @@
       <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="31" t="n">
+      <c r="E31" s="31">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="32" t="n">
+      <c r="G31" s="32">
         <v>0.85</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="6">
         <v>-50</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -5561,7 +5714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>66</v>
       </c>
@@ -5574,19 +5727,19 @@
       <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="16">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="32" t="n">
+      <c r="G32" s="32">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="7">
         <v>-30</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -5596,7 +5749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>66</v>
       </c>
@@ -5609,19 +5762,19 @@
       <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="16">
         <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="32" t="n">
+      <c r="G33" s="32">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="7">
         <v>-30</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -5631,7 +5784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>66</v>
       </c>
@@ -5644,19 +5797,19 @@
       <c r="D34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="16">
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="32" t="n">
+      <c r="G34" s="32">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="7">
         <v>-30</v>
       </c>
       <c r="J34" s="7" t="s">
@@ -5666,7 +5819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>66</v>
       </c>
@@ -5679,19 +5832,19 @@
       <c r="D35" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="36" t="n">
+      <c r="E35" s="36">
         <v>5</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="37" t="n">
+      <c r="G35" s="37">
         <v>1</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="35" t="n">
+      <c r="I35" s="35">
         <v>-30</v>
       </c>
       <c r="J35" s="35" t="s">
@@ -5701,7 +5854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>66</v>
       </c>
@@ -5714,19 +5867,19 @@
       <c r="D36" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="36" t="n">
+      <c r="E36" s="36">
         <v>4</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="37" t="n">
+      <c r="G36" s="37">
         <v>1</v>
       </c>
       <c r="H36" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="35" t="n">
+      <c r="I36" s="35">
         <v>-30</v>
       </c>
       <c r="J36" s="35" t="s">
@@ -5736,7 +5889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>66</v>
       </c>
@@ -5749,19 +5902,19 @@
       <c r="D37" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="36" t="n">
+      <c r="E37" s="36">
         <v>11</v>
       </c>
       <c r="F37" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="37" t="n">
+      <c r="G37" s="37">
         <v>1</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="35" t="n">
+      <c r="I37" s="35">
         <v>-30</v>
       </c>
       <c r="J37" s="35" t="s">
@@ -5771,12 +5924,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>12</v>
@@ -5784,19 +5937,19 @@
       <c r="D38" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="36" t="n">
+      <c r="E38" s="36">
         <v>21</v>
       </c>
       <c r="F38" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="37" t="n">
+      <c r="G38" s="37">
         <v>1</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="35" t="n">
+      <c r="I38" s="35">
         <v>-30</v>
       </c>
       <c r="J38" s="35" t="s">
@@ -5806,12 +5959,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>12</v>
@@ -5819,19 +5972,19 @@
       <c r="D39" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="36" t="n">
+      <c r="E39" s="36">
         <v>11</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="37" t="n">
+      <c r="G39" s="37">
         <v>1</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="35" t="n">
+      <c r="I39" s="35">
         <v>-30</v>
       </c>
       <c r="J39" s="35" t="s">
@@ -5841,7 +5994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>66</v>
       </c>
@@ -5854,19 +6007,19 @@
       <c r="D40" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="36" t="n">
+      <c r="E40" s="36">
         <v>4</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="37" t="n">
+      <c r="G40" s="37">
         <v>1</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="35" t="n">
+      <c r="I40" s="35">
         <v>-40</v>
       </c>
       <c r="J40" s="35" t="s">
@@ -5876,7 +6029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>66</v>
       </c>
@@ -5889,19 +6042,19 @@
       <c r="D41" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="36" t="n">
+      <c r="E41" s="36">
         <v>4</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="37" t="n">
+      <c r="G41" s="37">
         <v>1</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="35" t="n">
+      <c r="I41" s="35">
         <v>-40</v>
       </c>
       <c r="J41" s="35" t="s">
@@ -5911,12 +6064,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>12</v>
@@ -5924,19 +6077,19 @@
       <c r="D42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="36" t="n">
+      <c r="E42" s="36">
         <v>8</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="37" t="n">
+      <c r="G42" s="37">
         <v>1</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="35" t="n">
+      <c r="I42" s="35">
         <v>-40</v>
       </c>
       <c r="J42" s="35" t="s">
@@ -5946,12 +6099,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>12</v>
@@ -5959,19 +6112,19 @@
       <c r="D43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="36" t="n">
+      <c r="E43" s="36">
         <v>4</v>
       </c>
       <c r="F43" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="37" t="n">
+      <c r="G43" s="37">
         <v>1</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="35" t="n">
+      <c r="I43" s="35">
         <v>-40</v>
       </c>
       <c r="J43" s="35" t="s">
@@ -5982,43 +6135,36 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="34.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9"/>
+    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.125" style="2" customWidth="1"/>
+    <col min="10" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6032,13 +6178,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>9</v>
@@ -6047,9 +6193,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>62</v>
@@ -6060,14 +6206,14 @@
       <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="41" t="n">
+      <c r="E2" s="41">
         <v>18</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>39</v>
@@ -6076,9 +6222,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>62</v>
@@ -6087,16 +6233,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="41" t="n">
+        <v>117</v>
+      </c>
+      <c r="E3" s="41">
         <v>12</v>
       </c>
       <c r="F3" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>39</v>
@@ -6105,9 +6251,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>62</v>
@@ -6118,14 +6264,14 @@
       <c r="D4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="41" t="n">
+      <c r="E4" s="41">
         <v>18</v>
       </c>
       <c r="F4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>39</v>
@@ -6134,9 +6280,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>62</v>
@@ -6147,14 +6293,14 @@
       <c r="D5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="41" t="n">
+      <c r="E5" s="41">
         <v>36</v>
       </c>
       <c r="F5" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>39</v>
@@ -6163,9 +6309,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>62</v>
@@ -6176,14 +6322,14 @@
       <c r="D6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="41" t="n">
+      <c r="E6" s="41">
         <v>12</v>
       </c>
       <c r="F6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>39</v>
@@ -6192,9 +6338,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>62</v>
@@ -6205,14 +6351,14 @@
       <c r="D7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="41">
         <v>12</v>
       </c>
       <c r="F7" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>39</v>
@@ -6221,9 +6367,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>62</v>
@@ -6234,14 +6380,14 @@
       <c r="D8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="41">
         <v>6</v>
       </c>
       <c r="F8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>39</v>
@@ -6251,43 +6397,36 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="42" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="42" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="42" width="77.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="42" width="9"/>
+    <col min="1" max="1" width="12" style="42" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="42" customWidth="1"/>
+    <col min="5" max="10" width="12" style="42" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="77.875" style="42" customWidth="1"/>
+    <col min="13" max="1024" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>1</v>
@@ -6305,16 +6444,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>82</v>
       </c>
       <c r="K1" s="42" t="s">
         <v>9</v>
@@ -6323,9 +6462,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>12</v>
@@ -6336,28 +6475,28 @@
       <c r="D2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="42">
         <v>69.2</v>
       </c>
-      <c r="H2" s="42" t="n">
+      <c r="H2" s="42">
         <v>80</v>
       </c>
-      <c r="I2" s="44" t="n">
+      <c r="I2" s="44">
         <v>90</v>
       </c>
-      <c r="J2" s="42" t="n">
+      <c r="J2" s="42">
         <v>300</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>12</v>
@@ -6368,28 +6507,28 @@
       <c r="D3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="42">
         <v>87.1</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="42">
         <v>80</v>
       </c>
-      <c r="I3" s="42" t="n">
+      <c r="I3" s="42">
         <v>90</v>
       </c>
-      <c r="J3" s="42" t="n">
+      <c r="J3" s="42">
         <v>300</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>12</v>
@@ -6400,30 +6539,30 @@
       <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="21">
         <v>197</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="42">
         <v>80</v>
       </c>
-      <c r="I4" s="42" t="n">
+      <c r="I4" s="42">
         <v>90</v>
       </c>
-      <c r="J4" s="42" t="n">
+      <c r="J4" s="42">
         <v>300</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>12</v>
@@ -6434,30 +6573,30 @@
       <c r="D5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="21">
         <v>250</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="42">
         <v>80</v>
       </c>
-      <c r="I5" s="42" t="n">
+      <c r="I5" s="42">
         <v>90</v>
       </c>
-      <c r="J5" s="42" t="n">
+      <c r="J5" s="42">
         <v>300</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>12</v>
@@ -6468,64 +6607,64 @@
       <c r="D6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="21">
         <v>177</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="42">
         <v>80</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="42">
         <v>90</v>
       </c>
-      <c r="J6" s="42" t="n">
+      <c r="J6" s="42">
         <v>300</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="21">
         <v>281</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="42">
         <v>80</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="42">
         <v>90</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="42">
         <v>300</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>12</v>
@@ -6536,28 +6675,28 @@
       <c r="D8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="42">
         <v>101</v>
       </c>
-      <c r="H8" s="42" t="n">
+      <c r="H8" s="42">
         <v>80</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="42">
         <v>90</v>
       </c>
-      <c r="J8" s="42" t="n">
+      <c r="J8" s="42">
         <v>300</v>
       </c>
       <c r="K8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>12</v>
@@ -6566,62 +6705,62 @@
         <v>12</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="42" t="n">
+        <v>85</v>
+      </c>
+      <c r="E9" s="42">
         <v>98</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="H9" s="42">
         <v>80</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="42">
         <v>90</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="42">
         <v>300</v>
       </c>
       <c r="K9" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="42">
         <v>72</v>
       </c>
-      <c r="H10" s="42" t="n">
+      <c r="H10" s="42">
         <v>80</v>
       </c>
-      <c r="I10" s="42" t="n">
+      <c r="I10" s="42">
         <v>90</v>
       </c>
-      <c r="J10" s="42" t="n">
+      <c r="J10" s="42">
         <v>300</v>
       </c>
       <c r="K10" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>12</v>
@@ -6630,32 +6769,32 @@
         <v>12</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="45" t="n">
+        <v>117</v>
+      </c>
+      <c r="E11" s="45">
         <v>56</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
-      <c r="H11" s="42" t="n">
+      <c r="H11" s="42">
         <v>80</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="42">
         <v>90</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="42">
         <v>300</v>
       </c>
       <c r="K11" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>12</v>
@@ -6666,28 +6805,28 @@
       <c r="D12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="42" t="n">
+      <c r="E12" s="42">
         <v>101</v>
       </c>
-      <c r="H12" s="42" t="n">
+      <c r="H12" s="42">
         <v>80</v>
       </c>
-      <c r="I12" s="42" t="n">
+      <c r="I12" s="42">
         <v>90</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="42">
         <v>300</v>
       </c>
       <c r="K12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>12</v>
@@ -6696,30 +6835,30 @@
         <v>12</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="42" t="n">
+        <v>87</v>
+      </c>
+      <c r="E13" s="42">
         <v>72</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="H13" s="42">
         <v>80</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="42">
         <v>90</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="42">
         <v>300</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>12</v>
@@ -6728,32 +6867,32 @@
         <v>12</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="45" t="n">
+        <v>117</v>
+      </c>
+      <c r="E14" s="45">
         <v>60</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="42" t="n">
+      <c r="H14" s="42">
         <v>80</v>
       </c>
-      <c r="I14" s="42" t="n">
+      <c r="I14" s="42">
         <v>90</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="42">
         <v>300</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>12</v>
@@ -6764,28 +6903,28 @@
       <c r="D15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="42">
         <v>100</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="H15" s="42">
         <v>85</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="42">
         <v>85</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="42">
         <v>300</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>12</v>
@@ -6796,28 +6935,28 @@
       <c r="D16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="42">
         <v>117</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="H16" s="42">
         <v>85</v>
       </c>
-      <c r="I16" s="42" t="n">
+      <c r="I16" s="42">
         <v>85</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="J16" s="42">
         <v>300</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>12</v>
@@ -6828,28 +6967,28 @@
       <c r="D17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="42">
         <v>96</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="H17" s="42">
         <v>85</v>
       </c>
-      <c r="I17" s="42" t="n">
+      <c r="I17" s="42">
         <v>85</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="42">
         <v>300</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>12</v>
@@ -6860,65 +6999,58 @@
       <c r="D18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="42" t="n">
+      <c r="E18" s="42">
         <v>87.6</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="H18" s="42">
         <v>85</v>
       </c>
-      <c r="I18" s="42" t="n">
+      <c r="I18" s="42">
         <v>85</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="42">
         <v>300</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="46" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="28.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="23.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="46" width="32.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="46" width="27.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="46" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="46" width="24.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="46" width="9"/>
+    <col min="1" max="1" width="24.5" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10" style="46" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="46" customWidth="1"/>
+    <col min="8" max="8" width="32.375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="27.75" style="46" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="46" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6932,19 +7064,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="G1" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>95</v>
       </c>
       <c r="J1" s="51" t="s">
         <v>9</v>
@@ -6953,12 +7085,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>97</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>13</v>
@@ -6966,16 +7098,16 @@
       <c r="D2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="54" t="n">
+      <c r="E2" s="54">
         <v>0.13</v>
       </c>
-      <c r="F2" s="54" t="n">
+      <c r="F2" s="54">
         <v>14</v>
       </c>
-      <c r="G2" s="54" t="n">
+      <c r="G2" s="54">
         <v>60</v>
       </c>
-      <c r="H2" s="54" t="n">
+      <c r="H2" s="54">
         <v>72</v>
       </c>
       <c r="I2" s="54"/>
@@ -6983,15 +7115,15 @@
         <v>33</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>97</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>21</v>
@@ -6999,16 +7131,16 @@
       <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="54" t="n">
+      <c r="E3" s="54">
         <v>0.04</v>
       </c>
-      <c r="F3" s="54" t="n">
+      <c r="F3" s="54">
         <v>14</v>
       </c>
-      <c r="G3" s="54" t="n">
+      <c r="G3" s="54">
         <v>60</v>
       </c>
-      <c r="H3" s="54" t="n">
+      <c r="H3" s="54">
         <v>72</v>
       </c>
       <c r="I3" s="54"/>
@@ -7016,12 +7148,12 @@
         <v>33</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
@@ -7032,29 +7164,29 @@
       <c r="D4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="54" t="n">
+      <c r="E4" s="54">
         <v>0.13</v>
       </c>
-      <c r="F4" s="54" t="n">
+      <c r="F4" s="54">
         <v>14</v>
       </c>
-      <c r="G4" s="54" t="n">
+      <c r="G4" s="54">
         <v>60</v>
       </c>
-      <c r="H4" s="54" t="n">
+      <c r="H4" s="54">
         <v>72</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="54" t="n">
+      <c r="K4" s="54">
         <v>200306</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>64</v>
@@ -7065,62 +7197,55 @@
       <c r="D5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="54" t="n">
+      <c r="E5" s="54">
         <v>0.05</v>
       </c>
-      <c r="F5" s="54" t="n">
+      <c r="F5" s="54">
         <v>14</v>
       </c>
-      <c r="G5" s="54" t="n">
+      <c r="G5" s="54">
         <v>60</v>
       </c>
-      <c r="H5" s="54" t="n">
+      <c r="H5" s="54">
         <v>72</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="54" t="n">
+      <c r="K5" s="54">
         <v>200320</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="46" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="46" width="27.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="46" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="46" width="45.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="46" width="9"/>
+    <col min="1" max="1" width="24.5" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10" style="46" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="46" customWidth="1"/>
+    <col min="6" max="7" width="27.75" style="46" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="46" customWidth="1"/>
+    <col min="9" max="9" width="45.25" style="46" customWidth="1"/>
+    <col min="10" max="1024" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7134,13 +7259,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="51" t="s">
         <v>9</v>
@@ -7149,9 +7274,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>62</v>
@@ -7162,13 +7287,13 @@
       <c r="D2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="57" t="n">
-        <v>0.732754</v>
-      </c>
-      <c r="F2" s="57" t="n">
+      <c r="E2" s="57">
+        <v>0.73275400000000002</v>
+      </c>
+      <c r="F2" s="57">
         <v>1</v>
       </c>
-      <c r="G2" s="57" t="n">
+      <c r="G2" s="57">
         <v>25</v>
       </c>
       <c r="H2" s="57" t="s">
@@ -7178,9 +7303,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>69</v>
@@ -7191,28 +7316,28 @@
       <c r="D3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="57" t="n">
+      <c r="E3" s="57">
         <v>0.399366</v>
       </c>
-      <c r="F3" s="57" t="n">
+      <c r="F3" s="57">
         <v>1</v>
       </c>
-      <c r="G3" s="57" t="n">
+      <c r="G3" s="57">
         <v>25</v>
       </c>
       <c r="H3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>13</v>
@@ -7220,28 +7345,28 @@
       <c r="D4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="57" t="n">
-        <v>-0.274558</v>
-      </c>
-      <c r="F4" s="57" t="n">
+      <c r="E4" s="57">
+        <v>-0.27455800000000002</v>
+      </c>
+      <c r="F4" s="57">
         <v>1</v>
       </c>
-      <c r="G4" s="57" t="n">
+      <c r="G4" s="57">
         <v>25</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>13</v>
@@ -7249,59 +7374,52 @@
       <c r="D5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="57" t="n">
-        <v>0.142466</v>
-      </c>
-      <c r="F5" s="57" t="n">
+      <c r="E5" s="57">
+        <v>0.14246600000000001</v>
+      </c>
+      <c r="F5" s="57">
         <v>1</v>
       </c>
-      <c r="G5" s="57" t="n">
+      <c r="G5" s="57">
         <v>25</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="12.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="22" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="10.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="22" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="22" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="79.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="22" width="9"/>
+    <col min="1" max="1" width="10.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="22" customWidth="1"/>
+    <col min="3" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="10.375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="22" customWidth="1"/>
+    <col min="7" max="8" width="16.875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="79.5" style="24" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -7315,19 +7433,19 @@
         <v>47</v>
       </c>
       <c r="E1" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>105</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>9</v>
@@ -7336,9 +7454,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>62</v>
@@ -7349,31 +7467,31 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="62" t="n">
+      <c r="E2" s="62">
         <v>89</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>0.6</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>62</v>
@@ -7384,31 +7502,31 @@
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="62" t="n">
+      <c r="E3" s="62">
         <v>83.9</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>0.6</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>60</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>62</v>
@@ -7419,34 +7537,34 @@
       <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="62" t="n">
+      <c r="E4" s="62">
         <v>79</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>0.6</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>60</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>13</v>
@@ -7454,34 +7572,34 @@
       <c r="D5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="64" t="n">
+      <c r="E5" s="64">
         <v>49.5</v>
       </c>
-      <c r="F5" s="65" t="n">
+      <c r="F5" s="65">
         <v>1</v>
       </c>
-      <c r="G5" s="65" t="n">
+      <c r="G5" s="65">
         <v>0.6</v>
       </c>
-      <c r="H5" s="65" t="n">
+      <c r="H5" s="65">
         <v>60</v>
       </c>
       <c r="I5" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="65" t="s">
-        <v>108</v>
-      </c>
       <c r="K5" s="66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>13</v>
@@ -7489,31 +7607,31 @@
       <c r="D6" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="64" t="n">
+      <c r="E6" s="64">
         <v>63.9</v>
       </c>
-      <c r="F6" s="65" t="n">
+      <c r="F6" s="65">
         <v>1</v>
       </c>
-      <c r="G6" s="65" t="n">
+      <c r="G6" s="65">
         <v>0.6</v>
       </c>
-      <c r="H6" s="65" t="n">
+      <c r="H6" s="65">
         <v>60</v>
       </c>
       <c r="I6" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="65" t="s">
-        <v>108</v>
-      </c>
       <c r="K6" s="66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>62</v>
@@ -7524,34 +7642,34 @@
       <c r="D7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="63" t="n">
+      <c r="E7" s="63">
         <v>82</v>
       </c>
-      <c r="F7" s="65" t="n">
+      <c r="F7" s="65">
         <v>1</v>
       </c>
-      <c r="G7" s="65" t="n">
+      <c r="G7" s="65">
         <v>0.6</v>
       </c>
-      <c r="H7" s="65" t="n">
+      <c r="H7" s="65">
         <v>60</v>
       </c>
       <c r="I7" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="65" t="s">
-        <v>108</v>
-      </c>
       <c r="K7" s="66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -7559,34 +7677,34 @@
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="7">
         <v>81.7</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>0.6</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>60</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -7594,31 +7712,31 @@
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>91.3</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>0.6</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>60</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>54</v>
@@ -7629,31 +7747,31 @@
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>84.7</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>0.6</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="6">
         <v>60</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>54</v>
@@ -7664,31 +7782,31 @@
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>91.6</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>0.6</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>60</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>64</v>
@@ -7699,31 +7817,31 @@
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>83.7</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>0.6</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="6">
         <v>60</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>64</v>
@@ -7734,31 +7852,31 @@
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>91.6</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>0.6</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>60</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>62</v>
@@ -7769,34 +7887,34 @@
       <c r="D14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="68" t="n">
+      <c r="E14" s="68">
         <v>32</v>
       </c>
-      <c r="F14" s="69" t="n">
+      <c r="F14" s="69">
         <v>1</v>
       </c>
-      <c r="G14" s="69" t="n">
+      <c r="G14" s="69">
         <v>0.6</v>
       </c>
-      <c r="H14" s="69" t="n">
+      <c r="H14" s="69">
         <v>60</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>21</v>
@@ -7804,31 +7922,31 @@
       <c r="D15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="68" t="n">
+      <c r="E15" s="68">
         <v>19.5</v>
       </c>
-      <c r="F15" s="69" t="n">
+      <c r="F15" s="69">
         <v>1</v>
       </c>
-      <c r="G15" s="69" t="n">
+      <c r="G15" s="69">
         <v>0.6</v>
       </c>
-      <c r="H15" s="69" t="n">
+      <c r="H15" s="69">
         <v>60</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="68" t="s">
         <v>54</v>
@@ -7839,31 +7957,31 @@
       <c r="D16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="68" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F16" s="69" t="n">
+      <c r="E16" s="68">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F16" s="69">
         <v>1</v>
       </c>
-      <c r="G16" s="69" t="n">
+      <c r="G16" s="69">
         <v>0.6</v>
       </c>
-      <c r="H16" s="69" t="n">
+      <c r="H16" s="69">
         <v>60</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>62</v>
@@ -7874,34 +7992,34 @@
       <c r="D17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="68" t="n">
+      <c r="E17" s="68">
         <v>29</v>
       </c>
-      <c r="F17" s="69" t="n">
+      <c r="F17" s="69">
         <v>1</v>
       </c>
-      <c r="G17" s="69" t="n">
+      <c r="G17" s="69">
         <v>0.6</v>
       </c>
-      <c r="H17" s="69" t="n">
+      <c r="H17" s="69">
         <v>60</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J17" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="67" t="s">
         <v>21</v>
@@ -7909,31 +8027,31 @@
       <c r="D18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="68" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F18" s="69" t="n">
+      <c r="E18" s="68">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F18" s="69">
         <v>1</v>
       </c>
-      <c r="G18" s="69" t="n">
+      <c r="G18" s="69">
         <v>0.6</v>
       </c>
-      <c r="H18" s="69" t="n">
+      <c r="H18" s="69">
         <v>60</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="68" t="s">
         <v>54</v>
@@ -7944,31 +8062,31 @@
       <c r="D19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="68" t="n">
+      <c r="E19" s="68">
         <v>34.9</v>
       </c>
-      <c r="F19" s="69" t="n">
+      <c r="F19" s="69">
         <v>1</v>
       </c>
-      <c r="G19" s="69" t="n">
+      <c r="G19" s="69">
         <v>0.6</v>
       </c>
-      <c r="H19" s="69" t="n">
+      <c r="H19" s="69">
         <v>60</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J19" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="68" t="s">
         <v>54</v>
@@ -7979,31 +8097,31 @@
       <c r="D20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="68" t="n">
+      <c r="E20" s="68">
         <v>30.5</v>
       </c>
-      <c r="F20" s="69" t="n">
+      <c r="F20" s="69">
         <v>1</v>
       </c>
-      <c r="G20" s="69" t="n">
+      <c r="G20" s="69">
         <v>0.6</v>
       </c>
-      <c r="H20" s="69" t="n">
+      <c r="H20" s="69">
         <v>60</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="68" t="s">
         <v>54</v>
@@ -8014,31 +8132,31 @@
       <c r="D21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="68" t="n">
+      <c r="E21" s="68">
         <v>28.9</v>
       </c>
-      <c r="F21" s="69" t="n">
+      <c r="F21" s="69">
         <v>1</v>
       </c>
-      <c r="G21" s="69" t="n">
+      <c r="G21" s="69">
         <v>0.6</v>
       </c>
-      <c r="H21" s="69" t="n">
+      <c r="H21" s="69">
         <v>60</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="68" t="s">
         <v>54</v>
@@ -8049,34 +8167,34 @@
       <c r="D22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="68" t="n">
+      <c r="E22" s="68">
         <v>29.1</v>
       </c>
-      <c r="F22" s="69" t="n">
+      <c r="F22" s="69">
         <v>1</v>
       </c>
-      <c r="G22" s="69" t="n">
+      <c r="G22" s="69">
         <v>0.6</v>
       </c>
-      <c r="H22" s="69" t="n">
+      <c r="H22" s="69">
         <v>60</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67" t="s">
         <v>13</v>
@@ -8084,31 +8202,31 @@
       <c r="D23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="26" t="n">
-        <v>77.6</v>
-      </c>
-      <c r="F23" s="69" t="n">
+      <c r="E23" s="26">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F23" s="69">
         <v>1</v>
       </c>
-      <c r="G23" s="69" t="n">
+      <c r="G23" s="69">
         <v>0.6</v>
       </c>
-      <c r="H23" s="69" t="n">
+      <c r="H23" s="69">
         <v>60</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>54</v>
@@ -8119,34 +8237,34 @@
       <c r="D24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="26">
         <v>78.5</v>
       </c>
-      <c r="F24" s="69" t="n">
+      <c r="F24" s="69">
         <v>1</v>
       </c>
-      <c r="G24" s="69" t="n">
+      <c r="G24" s="69">
         <v>0.6</v>
       </c>
-      <c r="H24" s="69" t="n">
+      <c r="H24" s="69">
         <v>60</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>13</v>
@@ -8154,34 +8272,34 @@
       <c r="D25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="26">
         <v>81</v>
       </c>
-      <c r="F25" s="69" t="n">
+      <c r="F25" s="69">
         <v>1</v>
       </c>
-      <c r="G25" s="69" t="n">
+      <c r="G25" s="69">
         <v>0.6</v>
       </c>
-      <c r="H25" s="69" t="n">
+      <c r="H25" s="69">
         <v>60</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J25" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="67" t="s">
         <v>13</v>
@@ -8189,31 +8307,31 @@
       <c r="D26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="26" t="n">
+      <c r="E26" s="26">
         <v>79</v>
       </c>
-      <c r="F26" s="69" t="n">
+      <c r="F26" s="69">
         <v>1</v>
       </c>
-      <c r="G26" s="69" t="n">
+      <c r="G26" s="69">
         <v>0.6</v>
       </c>
-      <c r="H26" s="69" t="n">
+      <c r="H26" s="69">
         <v>60</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J26" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>62</v>
@@ -8224,31 +8342,31 @@
       <c r="D27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="26" t="n">
+      <c r="E27" s="26">
         <v>92.56</v>
       </c>
-      <c r="F27" s="69" t="n">
+      <c r="F27" s="69">
         <v>1</v>
       </c>
-      <c r="G27" s="69" t="n">
+      <c r="G27" s="69">
         <v>0.6</v>
       </c>
-      <c r="H27" s="69" t="n">
+      <c r="H27" s="69">
         <v>60</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K27" s="71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>62</v>
@@ -8259,31 +8377,31 @@
       <c r="D28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="26" t="n">
+      <c r="E28" s="26">
         <v>92.6</v>
       </c>
-      <c r="F28" s="69" t="n">
+      <c r="F28" s="69">
         <v>1</v>
       </c>
-      <c r="G28" s="69" t="n">
+      <c r="G28" s="69">
         <v>0.6</v>
       </c>
-      <c r="H28" s="69" t="n">
+      <c r="H28" s="69">
         <v>60</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>54</v>
@@ -8294,34 +8412,34 @@
       <c r="D29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="69" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="F29" s="69" t="n">
+      <c r="E29" s="69">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F29" s="69">
         <v>1</v>
       </c>
-      <c r="G29" s="69" t="n">
+      <c r="G29" s="69">
         <v>0.6</v>
       </c>
-      <c r="H29" s="69" t="n">
+      <c r="H29" s="69">
         <v>60</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" s="69" t="s">
         <v>24</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>21</v>
@@ -8329,34 +8447,34 @@
       <c r="D30" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="74" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="F30" s="74" t="n">
+      <c r="E30" s="74">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F30" s="74">
         <v>1</v>
       </c>
-      <c r="G30" s="74" t="n">
+      <c r="G30" s="74">
         <v>0.6</v>
       </c>
-      <c r="H30" s="74" t="n">
+      <c r="H30" s="74">
         <v>60</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J30" s="74" t="s">
         <v>24</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="76" t="s">
         <v>21</v>
@@ -8364,31 +8482,31 @@
       <c r="D31" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="77" t="n">
+      <c r="E31" s="77">
         <v>89.7</v>
       </c>
-      <c r="F31" s="69" t="n">
+      <c r="F31" s="69">
         <v>1</v>
       </c>
-      <c r="G31" s="69" t="n">
+      <c r="G31" s="69">
         <v>0.6</v>
       </c>
-      <c r="H31" s="69" t="n">
+      <c r="H31" s="69">
         <v>60</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J31" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="78" t="n">
+      <c r="K31" s="78">
         <v>210111</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="76" t="s">
         <v>64</v>
@@ -8399,31 +8517,31 @@
       <c r="D32" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="77" t="n">
+      <c r="E32" s="77">
         <v>96.8</v>
       </c>
-      <c r="F32" s="69" t="n">
+      <c r="F32" s="69">
         <v>1</v>
       </c>
-      <c r="G32" s="69" t="n">
+      <c r="G32" s="69">
         <v>0.6</v>
       </c>
-      <c r="H32" s="69" t="n">
+      <c r="H32" s="69">
         <v>60</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="78" t="n">
+      <c r="K32" s="78">
         <v>210111</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>62</v>
@@ -8434,20 +8552,20 @@
       <c r="D33" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="39" t="n">
+      <c r="E33" s="39">
         <v>96.16</v>
       </c>
-      <c r="F33" s="39" t="n">
+      <c r="F33" s="39">
         <v>1</v>
       </c>
-      <c r="G33" s="39" t="n">
+      <c r="G33" s="39">
         <v>0.6</v>
       </c>
-      <c r="H33" s="39" t="n">
+      <c r="H33" s="39">
         <v>60</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J33" s="39" t="s">
         <v>39</v>
@@ -8456,9 +8574,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>68</v>
@@ -8469,20 +8587,20 @@
       <c r="D34" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="39" t="n">
-        <v>72.68</v>
-      </c>
-      <c r="F34" s="39" t="n">
+      <c r="E34" s="39">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="F34" s="39">
         <v>1</v>
       </c>
-      <c r="G34" s="39" t="n">
+      <c r="G34" s="39">
         <v>0.6</v>
       </c>
-      <c r="H34" s="39" t="n">
+      <c r="H34" s="39">
         <v>60</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>39</v>
@@ -8491,9 +8609,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>69</v>
@@ -8504,20 +8622,20 @@
       <c r="D35" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="39" t="n">
+      <c r="E35" s="39">
         <v>97.02</v>
       </c>
-      <c r="F35" s="39" t="n">
+      <c r="F35" s="39">
         <v>1</v>
       </c>
-      <c r="G35" s="39" t="n">
+      <c r="G35" s="39">
         <v>0.6</v>
       </c>
-      <c r="H35" s="39" t="n">
+      <c r="H35" s="39">
         <v>60</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J35" s="39" t="s">
         <v>39</v>
@@ -8526,12 +8644,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>13</v>
@@ -8539,20 +8657,20 @@
       <c r="D36" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="39" t="n">
+      <c r="E36" s="39">
         <v>93.28</v>
       </c>
-      <c r="F36" s="39" t="n">
+      <c r="F36" s="39">
         <v>1</v>
       </c>
-      <c r="G36" s="39" t="n">
+      <c r="G36" s="39">
         <v>0.6</v>
       </c>
-      <c r="H36" s="39" t="n">
+      <c r="H36" s="39">
         <v>60</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>39</v>
@@ -8562,13 +8680,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/td_toolkits_v3/reliabilities/tests/test_files/TR2_RA.xlsx
+++ b/td_toolkits_v3/reliabilities/tests/test_files/TR2_RA.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dimsp\Documents\Projects\td_toolkits_v3\td_toolkits_v3\reliabilities\tests\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC7526-83EA-4DEE-BFFA-4207C1595F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="37690" windowHeight="21820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adhesion" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LTO" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="LTS" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PCT" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Seal WVTR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Δangle" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="U-Shape AC" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="VHR" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Adhesion" sheetId="1" r:id="rId1"/>
+    <sheet name="LTO" sheetId="2" r:id="rId2"/>
+    <sheet name="LTS" sheetId="3" r:id="rId3"/>
+    <sheet name="PCT" sheetId="4" r:id="rId4"/>
+    <sheet name="Seal WVTR" sheetId="5" r:id="rId5"/>
+    <sheet name="Δangle" sheetId="6" r:id="rId6"/>
+    <sheet name="U-Shape AC" sheetId="7" r:id="rId7"/>
+    <sheet name="VHR" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Adhesion!$A$1:$K$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">PCT!$A$1:$I$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Seal WVTR'!$A$1:$L$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">VHR!$A$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Adhesion!$A$1:$K$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">PCT!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Seal WVTR'!$A$1:$L$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7">VHR!$A$1:$K$32</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,24 +37,24 @@
 </workbook>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">NA: fresh LC
+          <t>NA: fresh LC
 Seal name: jar test</t>
         </r>
       </text>
@@ -59,152 +64,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="119">
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y軸數值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure condition:
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="121">
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Y軸數值</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Measure condition:
 Adhesion介面(T/C)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition:
+    <t>Measure condition:
 測試手法</t>
   </si>
   <si>
-    <t xml:space="preserve">Remark:Peeling介面(T/C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">723K1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI/PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法5mm/min 雙PI--積水STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal/Seal &amp; PI/Seal peeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">積水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210319_INX_TR1 (S-NP07)_No.22,23 PCT Peeling mode追記_SNP07, K1M, 7142T, 005, 109U, 205.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7142T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB205</t>
+    <t>Remark:Peeling介面(T/C)</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t>File source</t>
+  </si>
+  <si>
+    <t>Adhesion</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>RB005</t>
+  </si>
+  <si>
+    <t>723K1M</t>
+  </si>
+  <si>
+    <t>kgw</t>
+  </si>
+  <si>
+    <t>PI/PI</t>
+  </si>
+  <si>
+    <t>十字法5mm/min 雙PI--積水STD</t>
+  </si>
+  <si>
+    <t>Seal/Seal &amp; PI/Seal peeling</t>
+  </si>
+  <si>
+    <t>積水</t>
+  </si>
+  <si>
+    <t>210319_INX_TR1 (S-NP07)_No.22,23 PCT Peeling mode追記_SNP07, K1M, 7142T, 005, 109U, 205.1</t>
+  </si>
+  <si>
+    <t>7142T</t>
+  </si>
+  <si>
+    <t>RB205</t>
   </si>
   <si>
     <t xml:space="preserve"> PI/Seal peeling</t>
   </si>
   <si>
-    <t xml:space="preserve">協立法 雙PI --協立STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">協立</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200427_ODF_INL北_723K1M、7142T_新PI接著方式(中文)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal/Seal peeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法5mm/min--三井STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.B.D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三井</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200421_Adheisve Strenght to PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法-雙PI-日產</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nissan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-NP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十字法-雙PI-CMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI/Glass peeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2211, 膠寬 1000um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNP07 TR1&amp;TR2 Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九宮格, 膠寬 1000um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-747 TR1&amp;TR2 Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-747(UV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR-748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sealant</t>
+    <t>協立法 雙PI --協立STD</t>
+  </si>
+  <si>
+    <t>協立</t>
+  </si>
+  <si>
+    <t>200427_ODF_INL北_723K1M、7142T_新PI接著方式(中文)</t>
+  </si>
+  <si>
+    <t>Seal/Seal peeling</t>
+  </si>
+  <si>
+    <t>十字法5mm/min--三井STD</t>
+  </si>
+  <si>
+    <t>T.B.D</t>
+  </si>
+  <si>
+    <t>三井</t>
+  </si>
+  <si>
+    <t>200421_Adheisve Strenght to PI</t>
+  </si>
+  <si>
+    <t>V386</t>
+  </si>
+  <si>
+    <t>十字法-雙PI-日產</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>S-NP07</t>
+  </si>
+  <si>
+    <t>十字法-雙PI-CMC</t>
+  </si>
+  <si>
+    <t>PI/Glass peeling</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>2211, 膠寬 1000um</t>
+  </si>
+  <si>
+    <t>INX</t>
+  </si>
+  <si>
+    <t>SNP07 TR1&amp;TR2 Report</t>
+  </si>
+  <si>
+    <t>九宮格, 膠寬 1000um</t>
+  </si>
+  <si>
+    <t>SUR-747 TR1&amp;TR2 Report</t>
+  </si>
+  <si>
+    <t>SUR-747(UV)</t>
+  </si>
+  <si>
+    <t>SUR-747</t>
+  </si>
+  <si>
+    <t>SUR-748</t>
+  </si>
+  <si>
+    <t>Sealant</t>
   </si>
   <si>
     <r>
@@ -215,7 +220,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LTO result
+      <t>LTO result
 (</t>
     </r>
     <r>
@@ -226,7 +231,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">有黑屏</t>
+      <t>有黑屏</t>
     </r>
     <r>
       <rPr>
@@ -236,19 +241,19 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: NG)</t>
+      <t>: NG)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Bulk/Test Cell)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (SLV%, Fresh=100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Jar test add on Sealant)</t>
   </si>
   <si>
@@ -260,7 +265,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Measure condition
+      <t>Measure condition
 (</t>
     </r>
     <r>
@@ -271,7 +276,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">℃</t>
+      <t>℃</t>
     </r>
     <r>
       <rPr>
@@ -281,293 +286,281 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC19V33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slichem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6512_19V33_LTS-40_20200902.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE-7492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XN-5490H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-15-1098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk LTS.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-19-580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTS result
+    <t>LTO</t>
+  </si>
+  <si>
+    <t>SLC19V33</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Slichem</t>
+  </si>
+  <si>
+    <t>6512_19V33_LTS-40_20200902.xlsx</t>
+  </si>
+  <si>
+    <t>SE-7492</t>
+  </si>
+  <si>
+    <t>XN-5490H</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test Cell</t>
+  </si>
+  <si>
+    <t>LCT-15-1098</t>
+  </si>
+  <si>
+    <t>Bulk LTS.xlsx</t>
+  </si>
+  <si>
+    <t>LCT-19-580</t>
+  </si>
+  <si>
+    <t>LTS result
 (1st NG Day)</t>
   </si>
   <si>
-    <t xml:space="preserve">LTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1098 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY20-Q18F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC20V87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILD-843001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIX-7054XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y軸數值 
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>1098 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>BY20-Q18F</t>
+  </si>
+  <si>
+    <t>SLC20V87</t>
+  </si>
+  <si>
+    <t>ILD-843001</t>
+  </si>
+  <si>
+    <t>ZIX-7054XX</t>
+  </si>
+  <si>
+    <t>Y軸數值 
 (Bubble 5% hours)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 測試條件</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition:
+    <t>Measure condition:
 test vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">PCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2atm, 121℃, 100% RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九宮格 test cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y軸項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溫度(°C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">濕度(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">膜厚(um)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WVTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200131_ODF_INL北_723K1M,7142T_貴社指定条件透湿度(実測)_80℃90％,65℃95％_中文版</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200302_Data of Seal H (INX竹南).1_V386, K1M, 7142T,SWH25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWH25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200930 NXT2-Roadmap (1003) 追加光起始劑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201110_INX_QTR_v5 (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-NP07 TR1 TR2 Report</t>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>2atm, 121℃, 100% RH</t>
+  </si>
+  <si>
+    <t>九宮格 test cell</t>
+  </si>
+  <si>
+    <t>Y軸項目</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>溫度(°C)</t>
+  </si>
+  <si>
+    <t>濕度(%)</t>
+  </si>
+  <si>
+    <t>膜厚(um)</t>
+  </si>
+  <si>
+    <t>WVTR</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>200131_ODF_INL北_723K1M,7142T_貴社指定条件透湿度(実測)_80℃90％,65℃95％_中文版</t>
+  </si>
+  <si>
+    <t>200302_Data of Seal H (INX竹南).1_V386, K1M, 7142T,SWH25</t>
+  </si>
+  <si>
+    <t>SWH25</t>
+  </si>
+  <si>
+    <t>200930 NXT2-Roadmap (1003) 追加光起始劑</t>
+  </si>
+  <si>
+    <t>SSS42</t>
+  </si>
+  <si>
+    <t>201110_INX_QTR_v5 (4)</t>
+  </si>
+  <si>
+    <t>S-NP07 TR1 TR2 Report</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Y</t>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">軸數值</t>
+      <t>軸數值</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Voltage:V)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Frequence:hz)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (Time:hr)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (溫度:oC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Δangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-17-1336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200306
+    <t>Δangle</t>
+  </si>
+  <si>
+    <t>LCT-17-1336</t>
+  </si>
+  <si>
+    <t>200306
 200320</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Y</t>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">軸數值
+      <t>軸數值
 (取中位數)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AC%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1099 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101 like 液晶TR2評選_20210528(更正CR).pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VHR
+    <t>AC%</t>
+  </si>
+  <si>
+    <t>1099 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>1100 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>1101 like 液晶TR2評選_20210528(更正CR).pptx</t>
+  </si>
+  <si>
+    <t>VHR
 (Heat)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure condition
+    <t>Measure condition
 (UV aging)</t>
   </si>
   <si>
-    <t xml:space="preserve">VHR(Heat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS-A-19-075  Innolux LCT-15-1098 723K1M sealant N and sealant L contact test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS-A-19-073  Innolux Mobile UB-FFS LC sealant N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191127 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-Y、LC-Z].pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200527_LC Polluiton Test (INX竹南)_1336, 19V33, 580, 1228, 1098, 005, 169, V386, K1M</t>
+    <t>VHR(Heat)</t>
+  </si>
+  <si>
+    <t>Before UV</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>CAS-A-19-075  Innolux LCT-15-1098 723K1M sealant N and sealant L contact test</t>
+  </si>
+  <si>
+    <t>CAS-A-19-073  Innolux Mobile UB-FFS LC sealant N</t>
+  </si>
+  <si>
+    <t>191127 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-Y、LC-Z].pdf</t>
+  </si>
+  <si>
+    <t>200527_LC Polluiton Test (INX竹南)_1336, 19V33, 580, 1228, 1098, 005, 169, V386, K1M</t>
   </si>
   <si>
     <t xml:space="preserve">200312_JAR Test_UR-V386_LC-Y (INX竹南) </t>
   </si>
   <si>
-    <t xml:space="preserve">191009 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-V、LC-W、LC-Y ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210115_ODF_INL北_XS-K7059_追加Data_中文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180808 INL XS-K7142T価-2 (U238 LC-H XS-K7142T 723K1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210226_ODF_INL北_723K1M_Test Cell實驗_PI-P電氣特性,HPLC追加_中文.1</t>
+    <t>191009 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-V、LC-W、LC-Y ]</t>
+  </si>
+  <si>
+    <t>210115_ODF_INL北_XS-K7059_追加Data_中文</t>
+  </si>
+  <si>
+    <t>180808 INL XS-K7142T価-2 (U238 LC-H XS-K7142T 723K1</t>
+  </si>
+  <si>
+    <t>210226_ODF_INL北_723K1M_Test Cell實驗_PI-P電氣特性,HPLC追加_中文.1</t>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -611,18 +604,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF3333FF"/>
       <name val="新細明體"/>
@@ -658,7 +639,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
@@ -666,7 +647,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -674,7 +655,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="細明體"/>
@@ -682,7 +663,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
@@ -690,21 +671,21 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -712,12 +693,25 @@
       <charset val="136"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="7">
@@ -759,388 +753,293 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="一般 2" xfId="20"/>
-    <cellStyle name="百分比 2" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="百分比 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1199,41 +1098,63 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572421</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>36442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>245852</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>93322</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21835440" y="7456680"/>
-          <a:ext cx="1039680" cy="293760"/>
+          <a:off x="20137892" y="6752501"/>
+          <a:ext cx="928489" cy="273527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1245,15 +1166,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1261,7 +1189,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1270,7 +1198,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1278,7 +1206,7 @@
             </a:rPr>
             <a:t>: &gt;28.33</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1290,33 +1218,39 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>395941</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>489541</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>34830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="圖片 1" descr=""/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19873440" y="419040"/>
-          <a:ext cx="8217000" cy="2541960"/>
+          <a:off x="17309353" y="657411"/>
+          <a:ext cx="6996423" cy="2627125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,11 +1277,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 2" descr=""/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1380,11 +1320,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 3" descr=""/>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1406,33 +1352,39 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>522941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>519423</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 1" descr=""/>
+        <xdr:cNvPr id="4" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19873440" y="419040"/>
-          <a:ext cx="8217000" cy="2541960"/>
+          <a:off x="17966765" y="522941"/>
+          <a:ext cx="6996423" cy="2627125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,30 +1398,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>141941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>436680</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>55680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>37974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 2" descr=""/>
+        <xdr:cNvPr id="5" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19873440" y="3352680"/>
-          <a:ext cx="7821720" cy="6399000"/>
+          <a:off x="17787471" y="3824941"/>
+          <a:ext cx="6711974" cy="6612092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,11 +1454,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 3" descr=""/>
+        <xdr:cNvPr id="6" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1533,11 +1497,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="7" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1570,11 +1540,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 5" descr=""/>
+        <xdr:cNvPr id="8" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1596,35 +1572,41 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>568915</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>128614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>684720</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>321276</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>210334</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13309560" y="495360"/>
-          <a:ext cx="1175400" cy="291240"/>
+          <a:off x="14180327" y="561908"/>
+          <a:ext cx="1007420" cy="298367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1636,15 +1618,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1652,7 +1641,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1661,7 +1650,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1669,7 +1658,7 @@
             </a:rPr>
             <a:t>:  ≧18h</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1681,35 +1670,41 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165868</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>67501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>489240</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466829</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>175501</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16481520" y="262080"/>
-          <a:ext cx="1039680" cy="306720"/>
+          <a:off x="15278868" y="284148"/>
+          <a:ext cx="928490" cy="324647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1721,15 +1716,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1737,7 +1739,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1746,7 +1748,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1754,7 +1756,7 @@
             </a:rPr>
             <a:t>: &lt; 69.2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1762,34 +1764,40 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>169200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101964</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>148595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>470160</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>402925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>89195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16462440" y="887040"/>
-          <a:ext cx="1039680" cy="338040"/>
+          <a:off x="15214964" y="1015183"/>
+          <a:ext cx="928490" cy="373894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1801,15 +1809,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1817,7 +1832,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1826,7 +1841,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1834,7 +1849,7 @@
             </a:rPr>
             <a:t>: &lt; 177</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1842,34 +1857,40 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91612</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>497160</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>392573</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>5748</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16489440" y="1825200"/>
-          <a:ext cx="1039680" cy="327960"/>
+          <a:off x="15204612" y="1826332"/>
+          <a:ext cx="928490" cy="345887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff99"/>
+          <a:srgbClr val="FFFF99"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1881,15 +1902,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1897,7 +1925,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="zh-TW" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="zh-TW" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1906,7 +1934,7 @@
             <a:t>規格 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1914,7 +1942,7 @@
             </a:rPr>
             <a:t>: &lt; 101</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1925,33 +1953,325 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="95.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="9"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="95.26953125" style="2" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1985,8 +2305,11 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +2322,7 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>0.8</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -2020,8 +2343,11 @@
       <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2034,7 +2360,7 @@
       <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>3.4</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2055,8 +2381,11 @@
       <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2398,7 @@
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.6</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -2090,8 +2419,11 @@
       <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2104,8 +2436,8 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <v>1.1</v>
+      <c r="E5" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
@@ -2125,8 +2457,11 @@
       <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -2139,7 +2474,7 @@
       <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="12">
         <v>15.8</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -2160,8 +2495,11 @@
       <c r="K6" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2174,8 +2512,8 @@
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="12" t="n">
-        <v>19.6</v>
+      <c r="E7" s="12">
+        <v>19.600000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
@@ -2195,8 +2533,11 @@
       <c r="K7" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="16" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -2209,7 +2550,7 @@
       <c r="D8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>3.6</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -2230,8 +2571,11 @@
       <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +2588,7 @@
       <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>4.2</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2265,8 +2609,11 @@
       <c r="K9" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2279,7 +2626,7 @@
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>1.51</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -2300,8 +2647,11 @@
       <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="11" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2314,8 +2664,8 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <v>2.01</v>
+      <c r="E11" s="6">
+        <v>2.0099999999999998</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>15</v>
@@ -2335,8 +2685,11 @@
       <c r="K11" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="11" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2349,8 +2702,8 @@
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>2.51</v>
+      <c r="E12" s="6">
+        <v>2.5099999999999998</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
@@ -2370,8 +2723,11 @@
       <c r="K12" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2740,7 @@
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>0.59</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2405,8 +2761,11 @@
       <c r="K13" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -2419,7 +2778,7 @@
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>1.23</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -2440,8 +2799,11 @@
       <c r="K14" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2816,7 @@
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>1.82</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2475,8 +2837,11 @@
       <c r="K15" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="16" customFormat="1">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -2489,7 +2854,7 @@
       <c r="D16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="18">
         <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -2507,11 +2872,14 @@
       <c r="J16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="15" t="n">
+      <c r="K16" s="15">
         <v>210416</v>
       </c>
-    </row>
-    <row r="17" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="16" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -2524,7 +2892,7 @@
       <c r="D17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="18">
         <v>5.9</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -2542,11 +2910,14 @@
       <c r="J17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="19" t="n">
+      <c r="K17" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="18" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="16" customFormat="1">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -2559,7 +2930,7 @@
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="18">
         <v>7.7</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -2577,11 +2948,14 @@
       <c r="J18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="19" t="n">
+      <c r="K18" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="19" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="16" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -2594,7 +2968,7 @@
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="18">
         <v>1.2</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -2612,11 +2986,14 @@
       <c r="J19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="19" t="n">
+      <c r="K19" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="20" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="16" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +3006,7 @@
       <c r="D20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="18">
         <v>7.6</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -2647,11 +3024,14 @@
       <c r="J20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="19" t="n">
+      <c r="K20" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="21" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
@@ -2664,7 +3044,7 @@
       <c r="D21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="E21" s="18">
         <v>6.3</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -2682,11 +3062,14 @@
       <c r="J21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="19" t="n">
+      <c r="K21" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="22" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
@@ -2699,7 +3082,7 @@
       <c r="D22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E22" s="18">
         <v>7.4</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -2717,11 +3100,14 @@
       <c r="J22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="19" t="n">
+      <c r="K22" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="23" s="16" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -2734,7 +3120,7 @@
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="E23" s="18">
         <v>7.8</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -2752,11 +3138,14 @@
       <c r="J23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="19" t="n">
+      <c r="K23" s="19">
         <v>210416</v>
       </c>
-    </row>
-    <row r="24" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -2769,7 +3158,7 @@
       <c r="D24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="20">
         <v>0.93</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -2787,11 +3176,14 @@
       <c r="J24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="21" t="n">
+      <c r="K24" s="21">
         <v>20201208</v>
       </c>
-    </row>
-    <row r="25" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -2804,7 +3196,7 @@
       <c r="D25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="20" t="n">
+      <c r="E25" s="20">
         <v>0.71</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -2822,11 +3214,14 @@
       <c r="J25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="21" t="n">
+      <c r="K25" s="21">
         <v>20201208</v>
       </c>
-    </row>
-    <row r="26" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -2839,7 +3234,7 @@
       <c r="D26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="20">
         <v>1.2</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -2857,11 +3252,14 @@
       <c r="J26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="21" t="n">
+      <c r="K26" s="21">
         <v>20201208</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +3272,7 @@
       <c r="D27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="20">
         <v>0.91</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2892,11 +3290,14 @@
       <c r="J27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="21" t="n">
+      <c r="K27" s="21">
         <v>20201208</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="22" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +3310,7 @@
       <c r="D28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="22" t="n">
+      <c r="E28" s="22">
         <v>28.33</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -2930,8 +3331,11 @@
       <c r="K28" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="22" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +3348,7 @@
       <c r="D29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="22">
         <v>29.67</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -2965,8 +3369,11 @@
       <c r="K29" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="22" t="s">
         <v>11</v>
       </c>
@@ -2979,7 +3386,7 @@
       <c r="D30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="22">
         <v>32.75</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -3000,8 +3407,11 @@
       <c r="K30" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="22" t="s">
         <v>11</v>
       </c>
@@ -3014,7 +3424,7 @@
       <c r="D31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="22" t="n">
+      <c r="E31" s="22">
         <v>27.58</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -3035,8 +3445,11 @@
       <c r="K31" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="22" t="s">
         <v>11</v>
       </c>
@@ -3049,7 +3462,7 @@
       <c r="D32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="22" t="n">
+      <c r="E32" s="22">
         <v>7.81</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -3070,8 +3483,11 @@
       <c r="K32" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="22" t="s">
         <v>11</v>
       </c>
@@ -3084,8 +3500,8 @@
       <c r="D33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="22" t="n">
-        <v>18.76</v>
+      <c r="E33" s="22">
+        <v>18.760000000000002</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>15</v>
@@ -3105,8 +3521,11 @@
       <c r="K33" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="22" t="s">
         <v>11</v>
       </c>
@@ -3119,7 +3538,7 @@
       <c r="D34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="22" t="n">
+      <c r="E34" s="22">
         <v>13.23</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -3140,8 +3559,11 @@
       <c r="K34" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -3154,7 +3576,7 @@
       <c r="D35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="22" t="n">
+      <c r="E35" s="22">
         <v>27.59</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -3175,8 +3597,11 @@
       <c r="K35" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="22" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +3614,7 @@
       <c r="D36" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="22" t="n">
+      <c r="E36" s="22">
         <v>19.88</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -3210,8 +3635,11 @@
       <c r="K36" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +3652,7 @@
       <c r="D37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="22" t="n">
+      <c r="E37" s="22">
         <v>21.78</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -3245,8 +3673,11 @@
       <c r="K37" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="22" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3690,7 @@
       <c r="D38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="22" t="n">
+      <c r="E38" s="22">
         <v>21.94</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -3280,47 +3711,43 @@
       <c r="K38" s="22" t="s">
         <v>43</v>
       </c>
+      <c r="L38" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="12.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="25" width="79.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="23" width="9"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="12.90625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23"/>
+    <col min="4" max="4" width="14" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="79.453125" style="25" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="26" customFormat="1" ht="51">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3354,8 +3781,11 @@
       <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="26" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>53</v>
       </c>
@@ -3374,13 +3804,13 @@
       <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="33">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>-20</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -3389,8 +3819,11 @@
       <c r="K2" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="26" customFormat="1">
       <c r="A3" s="26" t="s">
         <v>53</v>
       </c>
@@ -3409,13 +3842,13 @@
       <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="33">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>-30</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -3424,8 +3857,11 @@
       <c r="K3" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="26" customFormat="1">
       <c r="A4" s="26" t="s">
         <v>53</v>
       </c>
@@ -3444,13 +3880,13 @@
       <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="33">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>-40</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -3459,8 +3895,11 @@
       <c r="K4" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
@@ -3479,13 +3918,13 @@
       <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="33">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>-30</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -3494,8 +3933,11 @@
       <c r="K5" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="26" t="s">
         <v>53</v>
       </c>
@@ -3514,13 +3956,13 @@
       <c r="F6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="33">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>-40</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -3529,8 +3971,11 @@
       <c r="K6" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="26" t="s">
         <v>53</v>
       </c>
@@ -3549,13 +3994,13 @@
       <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="33">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>-50</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -3564,8 +4009,11 @@
       <c r="K7" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="26" t="s">
         <v>53</v>
       </c>
@@ -3584,13 +4032,13 @@
       <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="33">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>-20</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -3599,8 +4047,11 @@
       <c r="K8" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="26" t="s">
         <v>53</v>
       </c>
@@ -3619,13 +4070,13 @@
       <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>-30</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -3634,8 +4085,11 @@
       <c r="K9" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="26" t="s">
         <v>53</v>
       </c>
@@ -3654,13 +4108,13 @@
       <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="33">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="6">
         <v>-40</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -3669,8 +4123,11 @@
       <c r="K10" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="26" t="s">
         <v>53</v>
       </c>
@@ -3689,13 +4146,13 @@
       <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="33">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>-30</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -3704,8 +4161,11 @@
       <c r="K11" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
@@ -3724,13 +4184,13 @@
       <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="33" t="n">
+      <c r="G12" s="33">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>-40</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -3739,8 +4199,11 @@
       <c r="K12" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3759,13 +4222,13 @@
       <c r="F13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="33" t="n">
+      <c r="G13" s="33">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>-50</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -3774,8 +4237,11 @@
       <c r="K13" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="26" t="s">
         <v>53</v>
       </c>
@@ -3794,13 +4260,13 @@
       <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="33" t="n">
+      <c r="G14" s="33">
         <v>0.95</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>-20</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -3809,8 +4275,11 @@
       <c r="K14" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="26" t="s">
         <v>53</v>
       </c>
@@ -3829,13 +4298,13 @@
       <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="33" t="n">
+      <c r="G15" s="33">
         <v>0.95</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>-30</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -3844,8 +4313,11 @@
       <c r="K15" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="26" t="s">
         <v>53</v>
       </c>
@@ -3864,13 +4336,13 @@
       <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="33" t="n">
+      <c r="G16" s="33">
         <v>0.95</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>-40</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -3879,8 +4351,11 @@
       <c r="K16" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="26" t="s">
         <v>53</v>
       </c>
@@ -3899,13 +4374,13 @@
       <c r="F17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="33" t="n">
+      <c r="G17" s="33">
         <v>0.95</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="6">
         <v>-30</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -3914,8 +4389,11 @@
       <c r="K17" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="26" t="s">
         <v>53</v>
       </c>
@@ -3934,13 +4412,13 @@
       <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="33" t="n">
+      <c r="G18" s="33">
         <v>0.95</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="6">
         <v>-40</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -3949,8 +4427,11 @@
       <c r="K18" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="26" t="s">
         <v>53</v>
       </c>
@@ -3969,13 +4450,13 @@
       <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="33" t="n">
+      <c r="G19" s="33">
         <v>0.95</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>-50</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -3984,8 +4465,11 @@
       <c r="K19" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="26" t="s">
         <v>53</v>
       </c>
@@ -4004,13 +4488,13 @@
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="33" t="n">
+      <c r="G20" s="33">
         <v>0.9</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>-20</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -4019,8 +4503,11 @@
       <c r="K20" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="26" t="s">
         <v>53</v>
       </c>
@@ -4039,13 +4526,13 @@
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="33" t="n">
+      <c r="G21" s="33">
         <v>0.9</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="6">
         <v>-30</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -4054,8 +4541,11 @@
       <c r="K21" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="26" t="s">
         <v>53</v>
       </c>
@@ -4074,13 +4564,13 @@
       <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="33" t="n">
+      <c r="G22" s="33">
         <v>0.9</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="6">
         <v>-40</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -4089,8 +4579,11 @@
       <c r="K22" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="26" t="s">
         <v>53</v>
       </c>
@@ -4109,13 +4602,13 @@
       <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="33" t="n">
+      <c r="G23" s="33">
         <v>0.9</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>-30</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -4124,8 +4617,11 @@
       <c r="K23" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="26" t="s">
         <v>53</v>
       </c>
@@ -4144,13 +4640,13 @@
       <c r="F24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="33" t="n">
+      <c r="G24" s="33">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="6">
         <v>-40</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -4159,8 +4655,11 @@
       <c r="K24" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="26" t="s">
         <v>53</v>
       </c>
@@ -4179,13 +4678,13 @@
       <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="33" t="n">
+      <c r="G25" s="33">
         <v>0.9</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="6">
         <v>-50</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -4194,8 +4693,11 @@
       <c r="K25" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="26" t="s">
         <v>53</v>
       </c>
@@ -4214,13 +4716,13 @@
       <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="33" t="n">
+      <c r="G26" s="33">
         <v>0.85</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="6">
         <v>-20</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -4229,8 +4731,11 @@
       <c r="K26" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="26" t="s">
         <v>53</v>
       </c>
@@ -4249,13 +4754,13 @@
       <c r="F27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="33" t="n">
+      <c r="G27" s="33">
         <v>0.85</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="6">
         <v>-30</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -4264,8 +4769,11 @@
       <c r="K27" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="26" t="s">
         <v>53</v>
       </c>
@@ -4284,13 +4792,13 @@
       <c r="F28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="33" t="n">
+      <c r="G28" s="33">
         <v>0.85</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="6">
         <v>-40</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -4299,8 +4807,11 @@
       <c r="K28" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="26" t="s">
         <v>53</v>
       </c>
@@ -4319,13 +4830,13 @@
       <c r="F29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="33" t="n">
+      <c r="G29" s="33">
         <v>0.85</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="6">
         <v>-30</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -4334,8 +4845,11 @@
       <c r="K29" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="26" t="s">
         <v>53</v>
       </c>
@@ -4354,13 +4868,13 @@
       <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="33" t="n">
+      <c r="G30" s="33">
         <v>0.85</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="6">
         <v>-40</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -4369,8 +4883,11 @@
       <c r="K30" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="26" t="s">
         <v>53</v>
       </c>
@@ -4389,13 +4906,13 @@
       <c r="F31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="33" t="n">
+      <c r="G31" s="33">
         <v>0.85</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="6">
         <v>-50</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -4404,8 +4921,11 @@
       <c r="K31" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="26" t="s">
         <v>53</v>
       </c>
@@ -4424,13 +4944,13 @@
       <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="33" t="n">
+      <c r="G32" s="33">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="7">
         <v>-30</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -4439,8 +4959,11 @@
       <c r="K32" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="26" t="s">
         <v>53</v>
       </c>
@@ -4459,13 +4982,13 @@
       <c r="F33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="33" t="n">
+      <c r="G33" s="33">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="7">
         <v>-30</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -4474,8 +4997,11 @@
       <c r="K33" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="26" t="s">
         <v>53</v>
       </c>
@@ -4494,13 +5020,13 @@
       <c r="F34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="33" t="n">
+      <c r="G34" s="33">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="7">
         <v>-30</v>
       </c>
       <c r="J34" s="7" t="s">
@@ -4509,47 +5035,43 @@
       <c r="K34" s="34" t="s">
         <v>63</v>
       </c>
+      <c r="L34" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="12.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="25" width="79.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="23" width="9"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="12.90625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23"/>
+    <col min="4" max="4" width="14" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="79.453125" style="25" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="26" customFormat="1" ht="51">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4583,8 +5105,11 @@
       <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="26" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>66</v>
       </c>
@@ -4597,19 +5122,19 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="32" t="n">
+      <c r="E2" s="32">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="33">
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>-20</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4618,8 +5143,11 @@
       <c r="K2" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="26" customFormat="1">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -4632,19 +5160,19 @@
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="35">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="33">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>-30</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -4653,8 +5181,11 @@
       <c r="K3" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="26" customFormat="1">
       <c r="A4" s="26" t="s">
         <v>66</v>
       </c>
@@ -4667,19 +5198,19 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="32">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="33">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>-40</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -4688,8 +5219,11 @@
       <c r="K4" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="26" t="s">
         <v>66</v>
       </c>
@@ -4702,19 +5236,19 @@
       <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="35" t="n">
+      <c r="E5" s="35">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="33">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>-30</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -4723,8 +5257,11 @@
       <c r="K5" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="26" t="s">
         <v>66</v>
       </c>
@@ -4737,19 +5274,19 @@
       <c r="D6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="32">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="33">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>-40</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -4758,8 +5295,11 @@
       <c r="K6" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="26" t="s">
         <v>66</v>
       </c>
@@ -4772,19 +5312,19 @@
       <c r="D7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="32">
         <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="33">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>-50</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -4793,8 +5333,11 @@
       <c r="K7" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="26" t="s">
         <v>66</v>
       </c>
@@ -4807,19 +5350,19 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="32">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="33">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>-20</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -4828,8 +5371,11 @@
       <c r="K8" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="26" t="s">
         <v>66</v>
       </c>
@@ -4842,19 +5388,19 @@
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="32">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>-30</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -4863,8 +5409,11 @@
       <c r="K9" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="26" t="s">
         <v>66</v>
       </c>
@@ -4877,19 +5426,19 @@
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="32">
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="33">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="6">
         <v>-40</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -4898,8 +5447,11 @@
       <c r="K10" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="26" t="s">
         <v>66</v>
       </c>
@@ -4912,19 +5464,19 @@
       <c r="D11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="32">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="33">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>-30</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -4933,8 +5485,11 @@
       <c r="K11" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="26" t="s">
         <v>66</v>
       </c>
@@ -4947,19 +5502,19 @@
       <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="32">
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="33" t="n">
+      <c r="G12" s="33">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>-40</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -4968,8 +5523,11 @@
       <c r="K12" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="26" t="s">
         <v>66</v>
       </c>
@@ -4982,19 +5540,19 @@
       <c r="D13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="32" t="n">
+      <c r="E13" s="32">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="33" t="n">
+      <c r="G13" s="33">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>-50</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -5003,8 +5561,11 @@
       <c r="K13" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="26" t="s">
         <v>66</v>
       </c>
@@ -5017,19 +5578,19 @@
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="32" t="n">
+      <c r="E14" s="32">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="33" t="n">
+      <c r="G14" s="33">
         <v>0.95</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>-20</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -5038,8 +5599,11 @@
       <c r="K14" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="26" t="s">
         <v>66</v>
       </c>
@@ -5052,19 +5616,19 @@
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32" t="n">
+      <c r="E15" s="32">
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="33" t="n">
+      <c r="G15" s="33">
         <v>0.95</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>-30</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -5073,8 +5637,11 @@
       <c r="K15" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="26" t="s">
         <v>66</v>
       </c>
@@ -5087,19 +5654,19 @@
       <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="32" t="n">
+      <c r="E16" s="32">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="33" t="n">
+      <c r="G16" s="33">
         <v>0.95</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>-40</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -5108,8 +5675,11 @@
       <c r="K16" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="26" t="s">
         <v>66</v>
       </c>
@@ -5122,19 +5692,19 @@
       <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="32" t="n">
+      <c r="E17" s="32">
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="33" t="n">
+      <c r="G17" s="33">
         <v>0.95</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="6">
         <v>-30</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -5143,8 +5713,11 @@
       <c r="K17" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="26" t="s">
         <v>66</v>
       </c>
@@ -5157,19 +5730,19 @@
       <c r="D18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="32" t="n">
+      <c r="E18" s="32">
         <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="33" t="n">
+      <c r="G18" s="33">
         <v>0.95</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="6">
         <v>-40</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -5178,8 +5751,11 @@
       <c r="K18" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="26" t="s">
         <v>66</v>
       </c>
@@ -5192,19 +5768,19 @@
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="32" t="n">
+      <c r="E19" s="32">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="33" t="n">
+      <c r="G19" s="33">
         <v>0.95</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>-50</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -5213,8 +5789,11 @@
       <c r="K19" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="26" t="s">
         <v>66</v>
       </c>
@@ -5227,19 +5806,19 @@
       <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="32" t="n">
+      <c r="E20" s="32">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="33" t="n">
+      <c r="G20" s="33">
         <v>0.9</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>-20</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -5248,8 +5827,11 @@
       <c r="K20" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="26" t="s">
         <v>66</v>
       </c>
@@ -5262,19 +5844,19 @@
       <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="32" t="n">
+      <c r="E21" s="32">
         <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="33" t="n">
+      <c r="G21" s="33">
         <v>0.9</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="6">
         <v>-30</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -5283,8 +5865,11 @@
       <c r="K21" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="26" t="s">
         <v>66</v>
       </c>
@@ -5297,19 +5882,19 @@
       <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="32" t="n">
+      <c r="E22" s="32">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="33" t="n">
+      <c r="G22" s="33">
         <v>0.9</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="6">
         <v>-40</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -5318,8 +5903,11 @@
       <c r="K22" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="26" t="s">
         <v>66</v>
       </c>
@@ -5332,19 +5920,19 @@
       <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="32" t="n">
+      <c r="E23" s="32">
         <v>10</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="33" t="n">
+      <c r="G23" s="33">
         <v>0.9</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>-30</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -5353,8 +5941,11 @@
       <c r="K23" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="26" t="s">
         <v>66</v>
       </c>
@@ -5367,19 +5958,19 @@
       <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="32" t="n">
+      <c r="E24" s="32">
         <v>12</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="33" t="n">
+      <c r="G24" s="33">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="6">
         <v>-40</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -5388,8 +5979,11 @@
       <c r="K24" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="26" t="s">
         <v>66</v>
       </c>
@@ -5402,19 +5996,19 @@
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="32" t="n">
+      <c r="E25" s="32">
         <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="33" t="n">
+      <c r="G25" s="33">
         <v>0.9</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="6">
         <v>-50</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -5423,8 +6017,11 @@
       <c r="K25" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="26" t="s">
         <v>66</v>
       </c>
@@ -5437,19 +6034,19 @@
       <c r="D26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="32" t="n">
+      <c r="E26" s="32">
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="33" t="n">
+      <c r="G26" s="33">
         <v>0.85</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="6">
         <v>-20</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -5458,8 +6055,11 @@
       <c r="K26" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="26" t="s">
         <v>66</v>
       </c>
@@ -5472,19 +6072,19 @@
       <c r="D27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="35" t="n">
+      <c r="E27" s="35">
         <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="33" t="n">
+      <c r="G27" s="33">
         <v>0.85</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="6">
         <v>-30</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -5493,8 +6093,11 @@
       <c r="K27" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="26" t="s">
         <v>66</v>
       </c>
@@ -5507,19 +6110,19 @@
       <c r="D28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="32" t="n">
+      <c r="E28" s="32">
         <v>5</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="33" t="n">
+      <c r="G28" s="33">
         <v>0.85</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="6">
         <v>-40</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -5528,8 +6131,11 @@
       <c r="K28" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="26" t="s">
         <v>66</v>
       </c>
@@ -5542,19 +6148,19 @@
       <c r="D29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="32" t="n">
+      <c r="E29" s="32">
         <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="33" t="n">
+      <c r="G29" s="33">
         <v>0.85</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="6">
         <v>-30</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -5563,8 +6169,11 @@
       <c r="K29" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="26" t="s">
         <v>66</v>
       </c>
@@ -5577,19 +6186,19 @@
       <c r="D30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="32" t="n">
+      <c r="E30" s="32">
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="33" t="n">
+      <c r="G30" s="33">
         <v>0.85</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="6">
         <v>-40</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -5598,8 +6207,11 @@
       <c r="K30" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="26" t="s">
         <v>66</v>
       </c>
@@ -5612,19 +6224,19 @@
       <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="32" t="n">
+      <c r="E31" s="32">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="33" t="n">
+      <c r="G31" s="33">
         <v>0.85</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="6">
         <v>-50</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -5633,8 +6245,11 @@
       <c r="K31" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="26" t="s">
         <v>66</v>
       </c>
@@ -5647,19 +6262,19 @@
       <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="17">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="33" t="n">
+      <c r="G32" s="33">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="7">
         <v>-30</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -5668,8 +6283,11 @@
       <c r="K32" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="26" t="s">
         <v>66</v>
       </c>
@@ -5682,19 +6300,19 @@
       <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="17" t="n">
+      <c r="E33" s="17">
         <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="33" t="n">
+      <c r="G33" s="33">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="7">
         <v>-30</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -5703,8 +6321,11 @@
       <c r="K33" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="26" t="s">
         <v>66</v>
       </c>
@@ -5717,19 +6338,19 @@
       <c r="D34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="17" t="n">
+      <c r="E34" s="17">
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="33" t="n">
+      <c r="G34" s="33">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="7">
         <v>-30</v>
       </c>
       <c r="J34" s="7" t="s">
@@ -5738,8 +6359,11 @@
       <c r="K34" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="26" t="s">
         <v>66</v>
       </c>
@@ -5752,19 +6376,19 @@
       <c r="D35" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E35" s="37">
         <v>5</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="38" t="n">
+      <c r="G35" s="38">
         <v>1</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="36" t="n">
+      <c r="I35" s="36">
         <v>-30</v>
       </c>
       <c r="J35" s="36" t="s">
@@ -5773,8 +6397,11 @@
       <c r="K35" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="26" t="s">
         <v>66</v>
       </c>
@@ -5787,19 +6414,19 @@
       <c r="D36" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="37" t="n">
+      <c r="E36" s="37">
         <v>4</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="38" t="n">
+      <c r="G36" s="38">
         <v>1</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="36" t="n">
+      <c r="I36" s="36">
         <v>-30</v>
       </c>
       <c r="J36" s="36" t="s">
@@ -5808,8 +6435,11 @@
       <c r="K36" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="26" t="s">
         <v>66</v>
       </c>
@@ -5822,19 +6452,19 @@
       <c r="D37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="37" t="n">
+      <c r="E37" s="37">
         <v>11</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="38" t="n">
+      <c r="G37" s="38">
         <v>1</v>
       </c>
       <c r="H37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="36" t="n">
+      <c r="I37" s="36">
         <v>-30</v>
       </c>
       <c r="J37" s="36" t="s">
@@ -5843,8 +6473,11 @@
       <c r="K37" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -5857,19 +6490,19 @@
       <c r="D38" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="37" t="n">
+      <c r="E38" s="37">
         <v>21</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="38" t="n">
+      <c r="G38" s="38">
         <v>1</v>
       </c>
       <c r="H38" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="36" t="n">
+      <c r="I38" s="36">
         <v>-30</v>
       </c>
       <c r="J38" s="36" t="s">
@@ -5878,8 +6511,11 @@
       <c r="K38" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="26" t="s">
         <v>66</v>
       </c>
@@ -5892,19 +6528,19 @@
       <c r="D39" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="37" t="n">
+      <c r="E39" s="37">
         <v>11</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="38" t="n">
+      <c r="G39" s="38">
         <v>1</v>
       </c>
       <c r="H39" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="36" t="n">
+      <c r="I39" s="36">
         <v>-30</v>
       </c>
       <c r="J39" s="36" t="s">
@@ -5913,8 +6549,11 @@
       <c r="K39" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L39" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="26" t="s">
         <v>66</v>
       </c>
@@ -5927,19 +6566,19 @@
       <c r="D40" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="37" t="n">
+      <c r="E40" s="37">
         <v>4</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="38" t="n">
+      <c r="G40" s="38">
         <v>1</v>
       </c>
       <c r="H40" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="36" t="n">
+      <c r="I40" s="36">
         <v>-40</v>
       </c>
       <c r="J40" s="36" t="s">
@@ -5948,8 +6587,11 @@
       <c r="K40" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L40" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="26" t="s">
         <v>66</v>
       </c>
@@ -5962,19 +6604,19 @@
       <c r="D41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="37" t="n">
+      <c r="E41" s="37">
         <v>4</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="38" t="n">
+      <c r="G41" s="38">
         <v>1</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="36" t="n">
+      <c r="I41" s="36">
         <v>-40</v>
       </c>
       <c r="J41" s="36" t="s">
@@ -5983,8 +6625,11 @@
       <c r="K41" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L41" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="26" t="s">
         <v>66</v>
       </c>
@@ -5997,19 +6642,19 @@
       <c r="D42" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="37" t="n">
+      <c r="E42" s="37">
         <v>8</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="38" t="n">
+      <c r="G42" s="38">
         <v>1</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="36" t="n">
+      <c r="I42" s="36">
         <v>-40</v>
       </c>
       <c r="J42" s="36" t="s">
@@ -6018,8 +6663,11 @@
       <c r="K42" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L42" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="26" t="s">
         <v>66</v>
       </c>
@@ -6032,19 +6680,19 @@
       <c r="D43" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="37" t="n">
+      <c r="E43" s="37">
         <v>4</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="38" t="n">
+      <c r="G43" s="38">
         <v>1</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="36" t="n">
+      <c r="I43" s="36">
         <v>-40</v>
       </c>
       <c r="J43" s="36" t="s">
@@ -6053,45 +6701,41 @@
       <c r="K43" s="39" t="s">
         <v>67</v>
       </c>
+      <c r="L43" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="34.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.08984375" style="2" customWidth="1"/>
+    <col min="10" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6119,8 +6763,11 @@
       <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="41" t="s">
         <v>75</v>
       </c>
@@ -6133,7 +6780,7 @@
       <c r="D2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="42">
         <v>18</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -6148,8 +6795,11 @@
       <c r="I2" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="41" t="s">
         <v>75</v>
       </c>
@@ -6162,7 +6812,7 @@
       <c r="D3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="42">
         <v>12</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -6177,8 +6827,11 @@
       <c r="I3" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="41" t="s">
         <v>75</v>
       </c>
@@ -6191,7 +6844,7 @@
       <c r="D4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="42">
         <v>18</v>
       </c>
       <c r="F4" s="42" t="s">
@@ -6206,8 +6859,11 @@
       <c r="I4" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="41" t="s">
         <v>75</v>
       </c>
@@ -6220,7 +6876,7 @@
       <c r="D5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="42" t="n">
+      <c r="E5" s="42">
         <v>36</v>
       </c>
       <c r="F5" s="42" t="s">
@@ -6235,8 +6891,11 @@
       <c r="I5" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -6249,7 +6908,7 @@
       <c r="D6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="42" t="n">
+      <c r="E6" s="42">
         <v>12</v>
       </c>
       <c r="F6" s="42" t="s">
@@ -6264,8 +6923,11 @@
       <c r="I6" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="41" t="s">
         <v>75</v>
       </c>
@@ -6278,7 +6940,7 @@
       <c r="D7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="42" t="n">
+      <c r="E7" s="42">
         <v>12</v>
       </c>
       <c r="F7" s="42" t="s">
@@ -6293,8 +6955,11 @@
       <c r="I7" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="41" t="s">
         <v>75</v>
       </c>
@@ -6307,7 +6972,7 @@
       <c r="D8" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="42">
         <v>6</v>
       </c>
       <c r="F8" s="42" t="s">
@@ -6322,43 +6987,39 @@
       <c r="I8" s="22" t="s">
         <v>41</v>
       </c>
+      <c r="J8" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="42" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="42" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="42" width="77.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="42" width="9"/>
+    <col min="1" max="1" width="12" style="42" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="42" customWidth="1"/>
+    <col min="5" max="10" width="12" style="42" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="77.90625" style="42" customWidth="1"/>
+    <col min="13" max="1024" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13">
       <c r="A1" s="42" t="s">
         <v>78</v>
       </c>
@@ -6395,8 +7056,11 @@
       <c r="L1" s="42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="42" t="s">
         <v>83</v>
       </c>
@@ -6409,22 +7073,22 @@
       <c r="D2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="42">
         <v>69.2</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="42" t="n">
+      <c r="G2" s="42">
         <v>24</v>
       </c>
-      <c r="H2" s="42" t="n">
+      <c r="H2" s="42">
         <v>80</v>
       </c>
-      <c r="I2" s="42" t="n">
+      <c r="I2" s="42">
         <v>90</v>
       </c>
-      <c r="J2" s="42" t="n">
+      <c r="J2" s="42">
         <v>300</v>
       </c>
       <c r="K2" s="42" t="s">
@@ -6433,8 +7097,11 @@
       <c r="L2" s="42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="42" t="s">
         <v>83</v>
       </c>
@@ -6447,22 +7114,22 @@
       <c r="D3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="42">
         <v>87.1</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="G3" s="42">
         <v>24</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="42">
         <v>80</v>
       </c>
-      <c r="I3" s="42" t="n">
+      <c r="I3" s="42">
         <v>90</v>
       </c>
-      <c r="J3" s="42" t="n">
+      <c r="J3" s="42">
         <v>300</v>
       </c>
       <c r="K3" s="42" t="s">
@@ -6471,8 +7138,11 @@
       <c r="L3" s="42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>83</v>
       </c>
@@ -6485,22 +7155,22 @@
       <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="22">
         <v>197</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="G4" s="42">
         <v>24</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="42">
         <v>80</v>
       </c>
-      <c r="I4" s="42" t="n">
+      <c r="I4" s="42">
         <v>90</v>
       </c>
-      <c r="J4" s="42" t="n">
+      <c r="J4" s="42">
         <v>300</v>
       </c>
       <c r="K4" s="22" t="s">
@@ -6509,8 +7179,11 @@
       <c r="L4" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="22" t="s">
         <v>83</v>
       </c>
@@ -6523,22 +7196,22 @@
       <c r="D5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="22">
         <v>250</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="42" t="n">
+      <c r="G5" s="42">
         <v>24</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="42">
         <v>80</v>
       </c>
-      <c r="I5" s="42" t="n">
+      <c r="I5" s="42">
         <v>90</v>
       </c>
-      <c r="J5" s="42" t="n">
+      <c r="J5" s="42">
         <v>300</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -6547,8 +7220,11 @@
       <c r="L5" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="22" t="s">
         <v>83</v>
       </c>
@@ -6561,22 +7237,22 @@
       <c r="D6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="22">
         <v>177</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="G6" s="42">
         <v>24</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="42">
         <v>80</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="42">
         <v>90</v>
       </c>
-      <c r="J6" s="42" t="n">
+      <c r="J6" s="42">
         <v>300</v>
       </c>
       <c r="K6" s="22" t="s">
@@ -6585,8 +7261,11 @@
       <c r="L6" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="22" t="s">
         <v>83</v>
       </c>
@@ -6599,22 +7278,22 @@
       <c r="D7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="22">
         <v>281</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="42" t="n">
+      <c r="G7" s="42">
         <v>24</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="42">
         <v>80</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="42">
         <v>90</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="42">
         <v>300</v>
       </c>
       <c r="K7" s="22" t="s">
@@ -6623,8 +7302,11 @@
       <c r="L7" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="42" t="s">
         <v>83</v>
       </c>
@@ -6637,22 +7319,22 @@
       <c r="D8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="42">
         <v>101</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="42" t="n">
+      <c r="G8" s="42">
         <v>24</v>
       </c>
-      <c r="H8" s="42" t="n">
+      <c r="H8" s="42">
         <v>80</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="42">
         <v>90</v>
       </c>
-      <c r="J8" s="42" t="n">
+      <c r="J8" s="42">
         <v>300</v>
       </c>
       <c r="K8" s="42" t="s">
@@ -6661,8 +7343,11 @@
       <c r="L8" s="42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="42" t="s">
         <v>83</v>
       </c>
@@ -6675,22 +7360,22 @@
       <c r="D9" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="42" t="n">
+      <c r="E9" s="42">
         <v>98</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="42" t="n">
+      <c r="G9" s="42">
         <v>24</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="H9" s="42">
         <v>80</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="42">
         <v>90</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="42">
         <v>300</v>
       </c>
       <c r="K9" s="42" t="s">
@@ -6699,8 +7384,11 @@
       <c r="L9" s="42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="42" t="s">
         <v>83</v>
       </c>
@@ -6713,22 +7401,22 @@
       <c r="D10" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="42">
         <v>72</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="42" t="n">
+      <c r="G10" s="42">
         <v>24</v>
       </c>
-      <c r="H10" s="42" t="n">
+      <c r="H10" s="42">
         <v>80</v>
       </c>
-      <c r="I10" s="42" t="n">
+      <c r="I10" s="42">
         <v>90</v>
       </c>
-      <c r="J10" s="42" t="n">
+      <c r="J10" s="42">
         <v>300</v>
       </c>
       <c r="K10" s="42" t="s">
@@ -6737,8 +7425,11 @@
       <c r="L10" s="42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="42" t="s">
         <v>83</v>
       </c>
@@ -6751,22 +7442,22 @@
       <c r="D11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="44" t="n">
+      <c r="E11" s="44">
         <v>56</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="42" t="n">
+      <c r="G11" s="42">
         <v>24</v>
       </c>
-      <c r="H11" s="42" t="n">
+      <c r="H11" s="42">
         <v>80</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="42">
         <v>90</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="42">
         <v>300</v>
       </c>
       <c r="K11" s="42" t="s">
@@ -6775,8 +7466,11 @@
       <c r="L11" s="42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="42" t="s">
         <v>83</v>
       </c>
@@ -6789,22 +7483,22 @@
       <c r="D12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="42" t="n">
+      <c r="E12" s="42">
         <v>101</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="42" t="n">
+      <c r="G12" s="42">
         <v>24</v>
       </c>
-      <c r="H12" s="42" t="n">
+      <c r="H12" s="42">
         <v>80</v>
       </c>
-      <c r="I12" s="42" t="n">
+      <c r="I12" s="42">
         <v>90</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="42">
         <v>300</v>
       </c>
       <c r="K12" s="42" t="s">
@@ -6813,8 +7507,11 @@
       <c r="L12" s="42" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="42" t="s">
         <v>83</v>
       </c>
@@ -6827,22 +7524,22 @@
       <c r="D13" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="42">
         <v>72</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="42" t="n">
+      <c r="G13" s="42">
         <v>24</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="H13" s="42">
         <v>80</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="42">
         <v>90</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="42">
         <v>300</v>
       </c>
       <c r="K13" s="42" t="s">
@@ -6851,8 +7548,11 @@
       <c r="L13" s="42" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="42" t="s">
         <v>83</v>
       </c>
@@ -6865,22 +7565,22 @@
       <c r="D14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="44" t="n">
+      <c r="E14" s="44">
         <v>60</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="42" t="n">
+      <c r="G14" s="42">
         <v>24</v>
       </c>
-      <c r="H14" s="42" t="n">
+      <c r="H14" s="42">
         <v>80</v>
       </c>
-      <c r="I14" s="42" t="n">
+      <c r="I14" s="42">
         <v>90</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="42">
         <v>300</v>
       </c>
       <c r="K14" s="42" t="s">
@@ -6889,8 +7589,11 @@
       <c r="L14" s="42" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="42" t="s">
         <v>83</v>
       </c>
@@ -6903,22 +7606,22 @@
       <c r="D15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="42">
         <v>100</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="42" t="n">
+      <c r="G15" s="42">
         <v>24</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="H15" s="42">
         <v>85</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="42">
         <v>85</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="42">
         <v>300</v>
       </c>
       <c r="K15" s="42" t="s">
@@ -6927,8 +7630,11 @@
       <c r="L15" s="42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="42" t="s">
         <v>83</v>
       </c>
@@ -6941,22 +7647,22 @@
       <c r="D16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="42">
         <v>117</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="42" t="n">
+      <c r="G16" s="42">
         <v>24</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="H16" s="42">
         <v>85</v>
       </c>
-      <c r="I16" s="42" t="n">
+      <c r="I16" s="42">
         <v>85</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="J16" s="42">
         <v>300</v>
       </c>
       <c r="K16" s="42" t="s">
@@ -6965,8 +7671,11 @@
       <c r="L16" s="42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="42" t="s">
         <v>83</v>
       </c>
@@ -6979,22 +7688,22 @@
       <c r="D17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="42">
         <v>96</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="42" t="n">
+      <c r="G17" s="42">
         <v>24</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="H17" s="42">
         <v>85</v>
       </c>
-      <c r="I17" s="42" t="n">
+      <c r="I17" s="42">
         <v>85</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="42">
         <v>300</v>
       </c>
       <c r="K17" s="42" t="s">
@@ -7003,8 +7712,11 @@
       <c r="L17" s="42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>83</v>
       </c>
@@ -7017,22 +7729,22 @@
       <c r="D18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="42" t="n">
+      <c r="E18" s="42">
         <v>87.6</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="42" t="n">
+      <c r="G18" s="42">
         <v>24</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="H18" s="42">
         <v>85</v>
       </c>
-      <c r="I18" s="42" t="n">
+      <c r="I18" s="42">
         <v>85</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="42">
         <v>300</v>
       </c>
       <c r="K18" s="42" t="s">
@@ -7041,47 +7753,43 @@
       <c r="L18" s="42" t="s">
         <v>91</v>
       </c>
+      <c r="M18" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="45" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="45" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="45" width="32.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="45" width="27.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="45" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="45" width="24.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="45" width="9"/>
+    <col min="1" max="1" width="24.453125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10" style="45" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="28.36328125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="32.36328125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="24.453125" style="45" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="34">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7115,8 +7823,11 @@
       <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39">
       <c r="A2" s="51" t="s">
         <v>97</v>
       </c>
@@ -7129,16 +7840,16 @@
       <c r="D2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="53" t="n">
+      <c r="E2" s="53">
         <v>0.13</v>
       </c>
-      <c r="F2" s="53" t="n">
+      <c r="F2" s="53">
         <v>14</v>
       </c>
-      <c r="G2" s="53" t="n">
+      <c r="G2" s="53">
         <v>60</v>
       </c>
-      <c r="H2" s="53" t="n">
+      <c r="H2" s="53">
         <v>72</v>
       </c>
       <c r="I2" s="53"/>
@@ -7148,8 +7859,11 @@
       <c r="K2" s="54" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="39">
       <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
@@ -7162,16 +7876,16 @@
       <c r="D3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="53">
         <v>0.04</v>
       </c>
-      <c r="F3" s="53" t="n">
+      <c r="F3" s="53">
         <v>14</v>
       </c>
-      <c r="G3" s="53" t="n">
+      <c r="G3" s="53">
         <v>60</v>
       </c>
-      <c r="H3" s="53" t="n">
+      <c r="H3" s="53">
         <v>72</v>
       </c>
       <c r="I3" s="53"/>
@@ -7181,8 +7895,11 @@
       <c r="K3" s="54" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.5">
       <c r="A4" s="51" t="s">
         <v>97</v>
       </c>
@@ -7195,27 +7912,30 @@
       <c r="D4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="53" t="n">
+      <c r="E4" s="53">
         <v>0.13</v>
       </c>
-      <c r="F4" s="53" t="n">
+      <c r="F4" s="53">
         <v>14</v>
       </c>
-      <c r="G4" s="53" t="n">
+      <c r="G4" s="53">
         <v>60</v>
       </c>
-      <c r="H4" s="53" t="n">
+      <c r="H4" s="53">
         <v>72</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="53" t="n">
+      <c r="K4" s="53">
         <v>200306</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.5">
       <c r="A5" s="51" t="s">
         <v>97</v>
       </c>
@@ -7228,62 +7948,58 @@
       <c r="D5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="53" t="n">
+      <c r="E5" s="53">
         <v>0.05</v>
       </c>
-      <c r="F5" s="53" t="n">
+      <c r="F5" s="53">
         <v>14</v>
       </c>
-      <c r="G5" s="53" t="n">
+      <c r="G5" s="53">
         <v>60</v>
       </c>
-      <c r="H5" s="53" t="n">
+      <c r="H5" s="53">
         <v>72</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="53" t="n">
+      <c r="K5" s="53">
         <v>200320</v>
       </c>
+      <c r="L5" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="45" width="27.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="45" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="45" width="45.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="45" width="9"/>
+    <col min="1" max="1" width="24.453125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10" style="45" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="45" customWidth="1"/>
+    <col min="6" max="7" width="27.7265625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="45.26953125" style="45" customWidth="1"/>
+    <col min="10" max="1024" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="34">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7311,8 +8027,11 @@
       <c r="I1" s="50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="45" t="s">
         <v>101</v>
       </c>
@@ -7325,13 +8044,13 @@
       <c r="D2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="56" t="n">
-        <v>0.732754</v>
-      </c>
-      <c r="F2" s="56" t="n">
+      <c r="E2" s="56">
+        <v>0.73275400000000002</v>
+      </c>
+      <c r="F2" s="56">
         <v>1</v>
       </c>
-      <c r="G2" s="56" t="n">
+      <c r="G2" s="56">
         <v>25</v>
       </c>
       <c r="H2" s="56" t="s">
@@ -7340,8 +8059,11 @@
       <c r="I2" s="57" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="45" t="s">
         <v>101</v>
       </c>
@@ -7354,13 +8076,13 @@
       <c r="D3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="56" t="n">
+      <c r="E3" s="56">
         <v>0.399366</v>
       </c>
-      <c r="F3" s="56" t="n">
+      <c r="F3" s="56">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="n">
+      <c r="G3" s="56">
         <v>25</v>
       </c>
       <c r="H3" s="56" t="s">
@@ -7369,8 +8091,11 @@
       <c r="I3" s="57" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="45" t="s">
         <v>101</v>
       </c>
@@ -7383,13 +8108,13 @@
       <c r="D4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="56" t="n">
-        <v>-0.274558</v>
-      </c>
-      <c r="F4" s="56" t="n">
+      <c r="E4" s="56">
+        <v>-0.27455800000000002</v>
+      </c>
+      <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="G4" s="56" t="n">
+      <c r="G4" s="56">
         <v>25</v>
       </c>
       <c r="H4" s="56" t="s">
@@ -7398,8 +8123,11 @@
       <c r="I4" s="57" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="45" t="s">
         <v>101</v>
       </c>
@@ -7412,13 +8140,13 @@
       <c r="D5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="56" t="n">
-        <v>0.142466</v>
-      </c>
-      <c r="F5" s="56" t="n">
+      <c r="E5" s="56">
+        <v>0.14246600000000001</v>
+      </c>
+      <c r="F5" s="56">
         <v>1</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="56">
         <v>25</v>
       </c>
       <c r="H5" s="56" t="s">
@@ -7427,44 +8155,40 @@
       <c r="I5" s="57" t="s">
         <v>104</v>
       </c>
+      <c r="J5" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="12.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="23" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="10.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="23" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="25" width="79.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="23" width="9"/>
+    <col min="1" max="1" width="10.6328125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="10.36328125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="23" customWidth="1"/>
+    <col min="7" max="8" width="16.90625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="79.453125" style="25" customWidth="1"/>
+    <col min="12" max="1024" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="26" customFormat="1" ht="46.5">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -7498,8 +8222,11 @@
       <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="26" t="s">
         <v>107</v>
       </c>
@@ -7512,16 +8239,16 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="61" t="n">
+      <c r="E2" s="61">
         <v>89</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>0.6</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -7533,8 +8260,11 @@
       <c r="K2" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="26" t="s">
         <v>107</v>
       </c>
@@ -7547,16 +8277,16 @@
       <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="61" t="n">
+      <c r="E3" s="61">
         <v>83.9</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>0.6</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>60</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -7568,8 +8298,11 @@
       <c r="K3" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="26" t="s">
         <v>107</v>
       </c>
@@ -7582,16 +8315,16 @@
       <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="61" t="n">
+      <c r="E4" s="61">
         <v>79</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>0.6</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>60</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -7603,8 +8336,11 @@
       <c r="K4" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="26" t="s">
         <v>107</v>
       </c>
@@ -7617,16 +8353,16 @@
       <c r="D5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="63" t="n">
+      <c r="E5" s="63">
         <v>49.5</v>
       </c>
-      <c r="F5" s="64" t="n">
+      <c r="F5" s="64">
         <v>1</v>
       </c>
-      <c r="G5" s="64" t="n">
+      <c r="G5" s="64">
         <v>0.6</v>
       </c>
-      <c r="H5" s="64" t="n">
+      <c r="H5" s="64">
         <v>60</v>
       </c>
       <c r="I5" s="62" t="s">
@@ -7638,8 +8374,11 @@
       <c r="K5" s="65" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="26" t="s">
         <v>107</v>
       </c>
@@ -7652,16 +8391,16 @@
       <c r="D6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="63" t="n">
+      <c r="E6" s="63">
         <v>63.9</v>
       </c>
-      <c r="F6" s="64" t="n">
+      <c r="F6" s="64">
         <v>1</v>
       </c>
-      <c r="G6" s="64" t="n">
+      <c r="G6" s="64">
         <v>0.6</v>
       </c>
-      <c r="H6" s="64" t="n">
+      <c r="H6" s="64">
         <v>60</v>
       </c>
       <c r="I6" s="62" t="s">
@@ -7673,8 +8412,11 @@
       <c r="K6" s="65" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="26" t="s">
         <v>107</v>
       </c>
@@ -7687,16 +8429,16 @@
       <c r="D7" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="62" t="n">
+      <c r="E7" s="62">
         <v>82</v>
       </c>
-      <c r="F7" s="64" t="n">
+      <c r="F7" s="64">
         <v>1</v>
       </c>
-      <c r="G7" s="64" t="n">
+      <c r="G7" s="64">
         <v>0.6</v>
       </c>
-      <c r="H7" s="64" t="n">
+      <c r="H7" s="64">
         <v>60</v>
       </c>
       <c r="I7" s="62" t="s">
@@ -7708,8 +8450,11 @@
       <c r="K7" s="65" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="26" t="s">
         <v>107</v>
       </c>
@@ -7722,16 +8467,16 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="7">
         <v>81.7</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>0.6</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>60</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -7743,8 +8488,11 @@
       <c r="K8" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -7757,16 +8505,16 @@
       <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>91.3</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>0.6</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>60</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -7778,8 +8526,11 @@
       <c r="K9" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="26" t="s">
         <v>107</v>
       </c>
@@ -7792,16 +8543,16 @@
       <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>84.7</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>0.6</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="6">
         <v>60</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -7813,8 +8564,11 @@
       <c r="K10" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="26" t="s">
         <v>107</v>
       </c>
@@ -7827,16 +8581,16 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>91.6</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>0.6</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>60</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -7848,8 +8602,11 @@
       <c r="K11" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="26" t="s">
         <v>107</v>
       </c>
@@ -7862,16 +8619,16 @@
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>83.7</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>0.6</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="6">
         <v>60</v>
       </c>
       <c r="I12" s="7" t="s">
@@ -7883,8 +8640,11 @@
       <c r="K12" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="26" t="s">
         <v>107</v>
       </c>
@@ -7897,16 +8657,16 @@
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>91.6</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>0.6</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>60</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -7918,8 +8678,11 @@
       <c r="K13" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="26" t="s">
         <v>107</v>
       </c>
@@ -7932,16 +8695,16 @@
       <c r="D14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="67" t="n">
+      <c r="E14" s="67">
         <v>32</v>
       </c>
-      <c r="F14" s="68" t="n">
+      <c r="F14" s="68">
         <v>1</v>
       </c>
-      <c r="G14" s="68" t="n">
+      <c r="G14" s="68">
         <v>0.6</v>
       </c>
-      <c r="H14" s="68" t="n">
+      <c r="H14" s="68">
         <v>60</v>
       </c>
       <c r="I14" s="27" t="s">
@@ -7953,8 +8716,11 @@
       <c r="K14" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="26" t="s">
         <v>107</v>
       </c>
@@ -7967,16 +8733,16 @@
       <c r="D15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="67" t="n">
+      <c r="E15" s="67">
         <v>19.5</v>
       </c>
-      <c r="F15" s="68" t="n">
+      <c r="F15" s="68">
         <v>1</v>
       </c>
-      <c r="G15" s="68" t="n">
+      <c r="G15" s="68">
         <v>0.6</v>
       </c>
-      <c r="H15" s="68" t="n">
+      <c r="H15" s="68">
         <v>60</v>
       </c>
       <c r="I15" s="27" t="s">
@@ -7988,8 +8754,11 @@
       <c r="K15" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="26" t="s">
         <v>107</v>
       </c>
@@ -8002,16 +8771,16 @@
       <c r="D16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="67" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F16" s="68" t="n">
+      <c r="E16" s="67">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F16" s="68">
         <v>1</v>
       </c>
-      <c r="G16" s="68" t="n">
+      <c r="G16" s="68">
         <v>0.6</v>
       </c>
-      <c r="H16" s="68" t="n">
+      <c r="H16" s="68">
         <v>60</v>
       </c>
       <c r="I16" s="27" t="s">
@@ -8023,8 +8792,11 @@
       <c r="K16" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="26" t="s">
         <v>107</v>
       </c>
@@ -8037,16 +8809,16 @@
       <c r="D17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="67" t="n">
+      <c r="E17" s="67">
         <v>29</v>
       </c>
-      <c r="F17" s="68" t="n">
+      <c r="F17" s="68">
         <v>1</v>
       </c>
-      <c r="G17" s="68" t="n">
+      <c r="G17" s="68">
         <v>0.6</v>
       </c>
-      <c r="H17" s="68" t="n">
+      <c r="H17" s="68">
         <v>60</v>
       </c>
       <c r="I17" s="27" t="s">
@@ -8058,8 +8830,11 @@
       <c r="K17" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="26" t="s">
         <v>107</v>
       </c>
@@ -8072,16 +8847,16 @@
       <c r="D18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="67" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F18" s="68" t="n">
+      <c r="E18" s="67">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F18" s="68">
         <v>1</v>
       </c>
-      <c r="G18" s="68" t="n">
+      <c r="G18" s="68">
         <v>0.6</v>
       </c>
-      <c r="H18" s="68" t="n">
+      <c r="H18" s="68">
         <v>60</v>
       </c>
       <c r="I18" s="27" t="s">
@@ -8093,8 +8868,11 @@
       <c r="K18" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="26" t="s">
         <v>107</v>
       </c>
@@ -8107,16 +8885,16 @@
       <c r="D19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="67" t="n">
+      <c r="E19" s="67">
         <v>34.9</v>
       </c>
-      <c r="F19" s="68" t="n">
+      <c r="F19" s="68">
         <v>1</v>
       </c>
-      <c r="G19" s="68" t="n">
+      <c r="G19" s="68">
         <v>0.6</v>
       </c>
-      <c r="H19" s="68" t="n">
+      <c r="H19" s="68">
         <v>60</v>
       </c>
       <c r="I19" s="27" t="s">
@@ -8128,8 +8906,11 @@
       <c r="K19" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="26" t="s">
         <v>107</v>
       </c>
@@ -8142,16 +8923,16 @@
       <c r="D20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="67" t="n">
+      <c r="E20" s="67">
         <v>30.5</v>
       </c>
-      <c r="F20" s="68" t="n">
+      <c r="F20" s="68">
         <v>1</v>
       </c>
-      <c r="G20" s="68" t="n">
+      <c r="G20" s="68">
         <v>0.6</v>
       </c>
-      <c r="H20" s="68" t="n">
+      <c r="H20" s="68">
         <v>60</v>
       </c>
       <c r="I20" s="27" t="s">
@@ -8163,8 +8944,11 @@
       <c r="K20" s="69" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="26" t="s">
         <v>107</v>
       </c>
@@ -8177,16 +8961,16 @@
       <c r="D21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="67" t="n">
+      <c r="E21" s="67">
         <v>28.9</v>
       </c>
-      <c r="F21" s="68" t="n">
+      <c r="F21" s="68">
         <v>1</v>
       </c>
-      <c r="G21" s="68" t="n">
+      <c r="G21" s="68">
         <v>0.6</v>
       </c>
-      <c r="H21" s="68" t="n">
+      <c r="H21" s="68">
         <v>60</v>
       </c>
       <c r="I21" s="27" t="s">
@@ -8198,8 +8982,11 @@
       <c r="K21" s="69" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="26" t="s">
         <v>107</v>
       </c>
@@ -8212,16 +8999,16 @@
       <c r="D22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="67" t="n">
+      <c r="E22" s="67">
         <v>29.1</v>
       </c>
-      <c r="F22" s="68" t="n">
+      <c r="F22" s="68">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="n">
+      <c r="G22" s="68">
         <v>0.6</v>
       </c>
-      <c r="H22" s="68" t="n">
+      <c r="H22" s="68">
         <v>60</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -8233,8 +9020,11 @@
       <c r="K22" s="69" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="26" t="s">
         <v>107</v>
       </c>
@@ -8247,16 +9037,16 @@
       <c r="D23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="27" t="n">
-        <v>77.6</v>
-      </c>
-      <c r="F23" s="68" t="n">
+      <c r="E23" s="27">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F23" s="68">
         <v>1</v>
       </c>
-      <c r="G23" s="68" t="n">
+      <c r="G23" s="68">
         <v>0.6</v>
       </c>
-      <c r="H23" s="68" t="n">
+      <c r="H23" s="68">
         <v>60</v>
       </c>
       <c r="I23" s="27" t="s">
@@ -8268,8 +9058,11 @@
       <c r="K23" s="70" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="26" t="s">
         <v>107</v>
       </c>
@@ -8282,16 +9075,16 @@
       <c r="D24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="27" t="n">
+      <c r="E24" s="27">
         <v>78.5</v>
       </c>
-      <c r="F24" s="68" t="n">
+      <c r="F24" s="68">
         <v>1</v>
       </c>
-      <c r="G24" s="68" t="n">
+      <c r="G24" s="68">
         <v>0.6</v>
       </c>
-      <c r="H24" s="68" t="n">
+      <c r="H24" s="68">
         <v>60</v>
       </c>
       <c r="I24" s="27" t="s">
@@ -8303,8 +9096,11 @@
       <c r="K24" s="70" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="26" t="s">
         <v>107</v>
       </c>
@@ -8317,16 +9113,16 @@
       <c r="D25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="27" t="n">
+      <c r="E25" s="27">
         <v>81</v>
       </c>
-      <c r="F25" s="68" t="n">
+      <c r="F25" s="68">
         <v>1</v>
       </c>
-      <c r="G25" s="68" t="n">
+      <c r="G25" s="68">
         <v>0.6</v>
       </c>
-      <c r="H25" s="68" t="n">
+      <c r="H25" s="68">
         <v>60</v>
       </c>
       <c r="I25" s="27" t="s">
@@ -8338,8 +9134,11 @@
       <c r="K25" s="70" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="26" t="s">
         <v>107</v>
       </c>
@@ -8352,16 +9151,16 @@
       <c r="D26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="27" t="n">
+      <c r="E26" s="27">
         <v>79</v>
       </c>
-      <c r="F26" s="68" t="n">
+      <c r="F26" s="68">
         <v>1</v>
       </c>
-      <c r="G26" s="68" t="n">
+      <c r="G26" s="68">
         <v>0.6</v>
       </c>
-      <c r="H26" s="68" t="n">
+      <c r="H26" s="68">
         <v>60</v>
       </c>
       <c r="I26" s="27" t="s">
@@ -8373,8 +9172,11 @@
       <c r="K26" s="70" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="26" t="s">
         <v>107</v>
       </c>
@@ -8387,16 +9189,16 @@
       <c r="D27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="27" t="n">
+      <c r="E27" s="27">
         <v>92.56</v>
       </c>
-      <c r="F27" s="68" t="n">
+      <c r="F27" s="68">
         <v>1</v>
       </c>
-      <c r="G27" s="68" t="n">
+      <c r="G27" s="68">
         <v>0.6</v>
       </c>
-      <c r="H27" s="68" t="n">
+      <c r="H27" s="68">
         <v>60</v>
       </c>
       <c r="I27" s="27" t="s">
@@ -8408,8 +9210,11 @@
       <c r="K27" s="70" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="26" t="s">
         <v>107</v>
       </c>
@@ -8422,16 +9227,16 @@
       <c r="D28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="27" t="n">
+      <c r="E28" s="27">
         <v>92.6</v>
       </c>
-      <c r="F28" s="68" t="n">
+      <c r="F28" s="68">
         <v>1</v>
       </c>
-      <c r="G28" s="68" t="n">
+      <c r="G28" s="68">
         <v>0.6</v>
       </c>
-      <c r="H28" s="68" t="n">
+      <c r="H28" s="68">
         <v>60</v>
       </c>
       <c r="I28" s="27" t="s">
@@ -8443,8 +9248,11 @@
       <c r="K28" s="70" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="26" t="s">
         <v>107</v>
       </c>
@@ -8457,16 +9265,16 @@
       <c r="D29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="68" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="F29" s="68" t="n">
+      <c r="E29" s="68">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F29" s="68">
         <v>1</v>
       </c>
-      <c r="G29" s="68" t="n">
+      <c r="G29" s="68">
         <v>0.6</v>
       </c>
-      <c r="H29" s="68" t="n">
+      <c r="H29" s="68">
         <v>60</v>
       </c>
       <c r="I29" s="27" t="s">
@@ -8478,8 +9286,11 @@
       <c r="K29" s="70" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="26" t="s">
         <v>107</v>
       </c>
@@ -8492,16 +9303,16 @@
       <c r="D30" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="73" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="F30" s="73" t="n">
+      <c r="E30" s="73">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F30" s="73">
         <v>1</v>
       </c>
-      <c r="G30" s="73" t="n">
+      <c r="G30" s="73">
         <v>0.6</v>
       </c>
-      <c r="H30" s="73" t="n">
+      <c r="H30" s="73">
         <v>60</v>
       </c>
       <c r="I30" s="71" t="s">
@@ -8513,8 +9324,11 @@
       <c r="K30" s="74" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="26" t="s">
         <v>107</v>
       </c>
@@ -8527,16 +9341,16 @@
       <c r="D31" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="76" t="n">
+      <c r="E31" s="76">
         <v>89.7</v>
       </c>
-      <c r="F31" s="68" t="n">
+      <c r="F31" s="68">
         <v>1</v>
       </c>
-      <c r="G31" s="68" t="n">
+      <c r="G31" s="68">
         <v>0.6</v>
       </c>
-      <c r="H31" s="68" t="n">
+      <c r="H31" s="68">
         <v>60</v>
       </c>
       <c r="I31" s="27" t="s">
@@ -8545,11 +9359,14 @@
       <c r="J31" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="77" t="n">
+      <c r="K31" s="77">
         <v>210111</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="26" t="s">
         <v>107</v>
       </c>
@@ -8562,16 +9379,16 @@
       <c r="D32" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="76" t="n">
+      <c r="E32" s="76">
         <v>96.8</v>
       </c>
-      <c r="F32" s="68" t="n">
+      <c r="F32" s="68">
         <v>1</v>
       </c>
-      <c r="G32" s="68" t="n">
+      <c r="G32" s="68">
         <v>0.6</v>
       </c>
-      <c r="H32" s="68" t="n">
+      <c r="H32" s="68">
         <v>60</v>
       </c>
       <c r="I32" s="27" t="s">
@@ -8580,11 +9397,14 @@
       <c r="J32" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="77" t="n">
+      <c r="K32" s="77">
         <v>210111</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="26" t="s">
         <v>107</v>
       </c>
@@ -8597,16 +9417,16 @@
       <c r="D33" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="40" t="n">
+      <c r="E33" s="40">
         <v>96.16</v>
       </c>
-      <c r="F33" s="40" t="n">
+      <c r="F33" s="40">
         <v>1</v>
       </c>
-      <c r="G33" s="40" t="n">
+      <c r="G33" s="40">
         <v>0.6</v>
       </c>
-      <c r="H33" s="40" t="n">
+      <c r="H33" s="40">
         <v>60</v>
       </c>
       <c r="I33" s="36" t="s">
@@ -8618,8 +9438,11 @@
       <c r="K33" s="78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="26" t="s">
         <v>107</v>
       </c>
@@ -8632,16 +9455,16 @@
       <c r="D34" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="40" t="n">
-        <v>72.68</v>
-      </c>
-      <c r="F34" s="40" t="n">
+      <c r="E34" s="40">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="F34" s="40">
         <v>1</v>
       </c>
-      <c r="G34" s="40" t="n">
+      <c r="G34" s="40">
         <v>0.6</v>
       </c>
-      <c r="H34" s="40" t="n">
+      <c r="H34" s="40">
         <v>60</v>
       </c>
       <c r="I34" s="36" t="s">
@@ -8653,8 +9476,11 @@
       <c r="K34" s="78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="26" t="s">
         <v>107</v>
       </c>
@@ -8667,16 +9493,16 @@
       <c r="D35" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="40" t="n">
+      <c r="E35" s="40">
         <v>97.02</v>
       </c>
-      <c r="F35" s="40" t="n">
+      <c r="F35" s="40">
         <v>1</v>
       </c>
-      <c r="G35" s="40" t="n">
+      <c r="G35" s="40">
         <v>0.6</v>
       </c>
-      <c r="H35" s="40" t="n">
+      <c r="H35" s="40">
         <v>60</v>
       </c>
       <c r="I35" s="36" t="s">
@@ -8688,8 +9514,11 @@
       <c r="K35" s="78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="26" t="s">
         <v>107</v>
       </c>
@@ -8702,16 +9531,16 @@
       <c r="D36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="40" t="n">
+      <c r="E36" s="40">
         <v>93.28</v>
       </c>
-      <c r="F36" s="40" t="n">
+      <c r="F36" s="40">
         <v>1</v>
       </c>
-      <c r="G36" s="40" t="n">
+      <c r="G36" s="40">
         <v>0.6</v>
       </c>
-      <c r="H36" s="40" t="n">
+      <c r="H36" s="40">
         <v>60</v>
       </c>
       <c r="I36" s="36" t="s">
@@ -8723,15 +9552,14 @@
       <c r="K36" s="78" t="s">
         <v>67</v>
       </c>
+      <c r="L36" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>